--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/SprintPlaning-Grupo1.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/SprintPlaning-Grupo1.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="ce9d+J54id9UHed2Oa9+jLqFdiyGQt2SlQy9f/YA8eI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="vXMcyXAHUqPu1Pm5UNVcq1vCggCcqJ1NqDVh1qGorjA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="147">
   <si>
     <t>Artefacto</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Revision/Correccion Funcion Notificar por Correo</t>
   </si>
   <si>
-    <t>En desarrollo</t>
-  </si>
-  <si>
     <t>Nueva Actividad</t>
   </si>
   <si>
@@ -258,28 +255,22 @@
     <t>Retrospective del Sprint 2</t>
   </si>
   <si>
-    <t>En espera</t>
-  </si>
-  <si>
     <t>Se cambia fecha de inicio del 23/10 al 25/10</t>
   </si>
   <si>
     <t>Sprint 3</t>
   </si>
   <si>
+    <t>Review Sprint 3</t>
+  </si>
+  <si>
     <t>Desarrollo Vista de Consejeros</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Desarrollo Documentacion del Proyecto</t>
   </si>
   <si>
     <t>Consejero - Desarrollo Funcionalidad Participar en Votacion</t>
-  </si>
-  <si>
-    <t>Consejero - Desarrollo Visualizacion de Resultados</t>
-  </si>
-  <si>
-    <t>Consejero - Desarrollo Vista Historial de Participacion</t>
   </si>
   <si>
     <t>Etapa del proyecto</t>
@@ -291,49 +282,61 @@
     <t xml:space="preserve">% HH de la Etapa </t>
   </si>
   <si>
-    <t>Pruebas de Seguridad Sprint 3</t>
+    <t>A.E - Carga de Votos en Tabla de Analisis</t>
   </si>
   <si>
     <t>Fase 1</t>
   </si>
   <si>
+    <t>Consejero - Desarrollo Notificacion de Resultados</t>
+  </si>
+  <si>
+    <t>Pruebas de Seguridad Sprint 3</t>
+  </si>
+  <si>
     <t>Prueba de Funcionalidad Sprint 3</t>
   </si>
   <si>
-    <t>Planilla de Evaluacion Avance Fase 2</t>
+    <t>Documentación Final de Desarrollo</t>
+  </si>
+  <si>
+    <t>Fase 2</t>
   </si>
   <si>
     <t>Documento Informe Final de Proyecto APT Fase 2</t>
   </si>
   <si>
-    <t>Planilla de Evaluacion Final Fase 2</t>
+    <t>Sprint 4</t>
   </si>
   <si>
-    <t>Fase 2</t>
+    <t>Ajuste de Ultimos Detalles</t>
+  </si>
+  <si>
+    <t>Fase 3</t>
   </si>
   <si>
     <t>Retrospective del Sprint 3</t>
   </si>
   <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
     <t>Fase Final - Fase 3</t>
   </si>
   <si>
-    <t>Fase 3</t>
+    <t>Review Sprint 4</t>
+  </si>
+  <si>
+    <t>Pruebas del Portal / Ultimas Modificaciones</t>
+  </si>
+  <si>
+    <t>En desarrollo</t>
+  </si>
+  <si>
+    <t>Documentacion Final del Proyecto</t>
+  </si>
+  <si>
+    <t>En espera</t>
   </si>
   <si>
     <t>Documento Diario de Reflexion Fase 3</t>
-  </si>
-  <si>
-    <t>Planilla de Evaluacion Fase 3</t>
-  </si>
-  <si>
-    <t>Presentacion Final del Proyecto</t>
-  </si>
-  <si>
-    <t>Pruebas del Portal / Ultimas Modificaciones</t>
   </si>
   <si>
     <t>Finalizacion/Presentacion del Proyecto</t>
@@ -375,13 +378,7 @@
     <t>Prueba de Seguridad Sprint 2</t>
   </si>
   <si>
-    <t>Prueba de Seguridad</t>
-  </si>
-  <si>
-    <t>Prueba de Funcionalidad</t>
-  </si>
-  <si>
-    <t>Retrospective del Sprint</t>
+    <t>Prueba de Seguridad Sprint 3</t>
   </si>
   <si>
     <t>Estado Total del Proyecto - Rodrigo Cancino</t>
@@ -1065,7 +1062,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border/>
     <border>
       <left/>
@@ -1424,6 +1421,12 @@
       <top/>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1520,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="185">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1683,19 +1686,16 @@
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="35" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1714,6 +1714,12 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1778,9 +1784,6 @@
     <xf borderId="41" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="42" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="43" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1829,6 +1832,9 @@
     <xf borderId="17" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="17" fillId="13" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1859,21 +1865,35 @@
     <xf borderId="17" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="40" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="39" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="52" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="43" fillId="13" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="48" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="43" fillId="15" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="47" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="45" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="17" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="53" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="54" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="55" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="56" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="56" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="57" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="58" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1881,23 +1901,23 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="58" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="59" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="17" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="59" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="60" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="60" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="61" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="61" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="62" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1907,8 +1927,8 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="62" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="63" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="64" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2117,7 +2137,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2151,7 +2171,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2477,11 +2497,11 @@
         <v>45551.0</v>
       </c>
       <c r="I6" s="12">
-        <f t="shared" ref="I6:I65" si="1">(H6-G6)</f>
+        <f t="shared" ref="I6:I67" si="1">(H6-G6)</f>
         <v>21</v>
       </c>
       <c r="J6" s="12">
-        <f t="shared" ref="J6:J65" si="2">(I6*2)</f>
+        <f t="shared" ref="J6:J67" si="2">(I6*2)</f>
         <v>42</v>
       </c>
       <c r="K6" s="11"/>
@@ -3103,8 +3123,8 @@
       <c r="S19" s="31"/>
       <c r="T19" s="32"/>
       <c r="U19" s="54">
-        <f>SUM(J7:J16,J20:J21,J24:J25,J27,J29:J33,J35:J36,J40:J43,J46)</f>
-        <v>112</v>
+        <f>SUM(J7:J16,J20:J21,J24:J25,J27,J29:J33,J35:J36,J40:J43,J45:J47,J49,J51:J53,J57:J60)</f>
+        <v>182</v>
       </c>
       <c r="V19" s="31"/>
       <c r="W19" s="32"/>
@@ -3153,8 +3173,8 @@
       <c r="S20" s="31"/>
       <c r="T20" s="32"/>
       <c r="U20" s="55">
-        <f>SUM(J45)</f>
-        <v>8</v>
+        <f>SUM(J63)</f>
+        <v>2</v>
       </c>
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
@@ -3203,8 +3223,8 @@
       <c r="S21" s="31"/>
       <c r="T21" s="32"/>
       <c r="U21" s="58">
-        <f>SUM(J47,J48,J59)</f>
-        <v>104</v>
+        <f>SUM(J64:J66)</f>
+        <v>40</v>
       </c>
       <c r="V21" s="31"/>
       <c r="W21" s="32"/>
@@ -3607,8 +3627,8 @@
       <c r="S30" s="31"/>
       <c r="T30" s="32"/>
       <c r="U30" s="54">
-        <f>SUM(J7:J9,J17:J21,J24,J27:J28,J30:J31,J33,J35:J36,J38,J40,J42:J43)</f>
-        <v>112</v>
+        <f>SUM(J7:J9,J17:J21,J24,J27:J28,J30:J31,J33,J35:J36,J38,J40,J42:J43,J45,J47,J49:J50,J52:J53,J55,J58:J60)</f>
+        <v>182</v>
       </c>
       <c r="V30" s="31"/>
       <c r="W30" s="32"/>
@@ -3658,8 +3678,8 @@
       <c r="S31" s="31"/>
       <c r="T31" s="32"/>
       <c r="U31" s="55">
-        <f>SUM(J45)</f>
-        <v>8</v>
+        <f>SUM(J63)</f>
+        <v>2</v>
       </c>
       <c r="V31" s="56"/>
       <c r="W31" s="57"/>
@@ -3709,8 +3729,8 @@
       <c r="S32" s="31"/>
       <c r="T32" s="32"/>
       <c r="U32" s="58">
-        <f>SUM(J47,J48,J59)</f>
-        <v>104</v>
+        <f>SUM(J64:J66)</f>
+        <v>40</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="32"/>
@@ -4131,8 +4151,8 @@
       <c r="S41" s="31"/>
       <c r="T41" s="32"/>
       <c r="U41" s="54">
-        <f>SUM(J7:J9,J17:J21,J25:J27,J30,J32:J33,J35,J37:J39,J42:J43,J46)</f>
-        <v>116</v>
+        <f>SUM(J7:J9,J17:J21,J25:J27,J30,J32:J33,J35,J37:J39,J42:J44,J46:J47,J49:J50,J52,J54,J56,J58:J60)</f>
+        <v>182</v>
       </c>
       <c r="V41" s="31"/>
       <c r="W41" s="32"/>
@@ -4182,8 +4202,8 @@
       <c r="S42" s="31"/>
       <c r="T42" s="32"/>
       <c r="U42" s="55">
-        <f>SUM(J44)</f>
-        <v>4</v>
+        <f>SUM(J63)</f>
+        <v>2</v>
       </c>
       <c r="V42" s="56"/>
       <c r="W42" s="57"/>
@@ -4233,8 +4253,8 @@
       <c r="S43" s="31"/>
       <c r="T43" s="32"/>
       <c r="U43" s="58">
-        <f>SUM(J47,J48,J59)</f>
-        <v>104</v>
+        <f>SUM(J64:J66)</f>
+        <v>40</v>
       </c>
       <c r="V43" s="31"/>
       <c r="W43" s="32"/>
@@ -4269,11 +4289,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="68" t="s">
         <v>73</v>
-      </c>
-      <c r="L44" s="68" t="s">
-        <v>74</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="5"/>
@@ -4300,7 +4320,7 @@
         <v>36.0</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>46</v>
@@ -4322,17 +4342,17 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K45" s="72" t="s">
-        <v>73</v>
+      <c r="K45" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L45" s="71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="5"/>
       <c r="O45" s="39"/>
       <c r="P45" s="39"/>
-      <c r="Q45" s="73"/>
+      <c r="Q45" s="72"/>
       <c r="X45" s="5"/>
     </row>
     <row r="46" ht="22.5" customHeight="1">
@@ -4342,7 +4362,7 @@
         <v>37.0</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>48</v>
@@ -4388,12 +4408,14 @@
         <v>38.0</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="22"/>
+      <c r="F47" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="G47" s="24">
         <v>45590.0</v>
       </c>
@@ -4408,11 +4430,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K47" s="74" t="s">
-        <v>79</v>
+      <c r="K47" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L47" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="5"/>
@@ -4424,7 +4446,7 @@
       <c r="B48" s="14"/>
       <c r="C48" s="21"/>
       <c r="D48" s="62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="63"/>
@@ -4442,9 +4464,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K48" s="75" t="s">
-        <v>79</v>
-      </c>
+      <c r="K48" s="73"/>
       <c r="L48" s="66"/>
       <c r="M48" s="4"/>
       <c r="N48" s="5"/>
@@ -4457,25 +4477,31 @@
       <c r="C49" s="38">
         <v>39.0</v>
       </c>
-      <c r="D49" s="21" t="s">
-        <v>82</v>
+      <c r="D49" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="24">
+        <v>45592.0</v>
+      </c>
+      <c r="H49" s="24">
+        <v>45593.0</v>
+      </c>
       <c r="I49" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="74" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L49" s="27"/>
       <c r="M49" s="4"/>
@@ -4501,24 +4527,30 @@
         <v>40.0</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+        <v>81</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="24">
+        <v>45592.0</v>
+      </c>
+      <c r="H50" s="24">
+        <v>45596.0</v>
+      </c>
       <c r="I50" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="74" t="s">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L50" s="27"/>
       <c r="M50" s="4"/>
@@ -4543,32 +4575,38 @@
       <c r="C51" s="38">
         <v>41.0</v>
       </c>
-      <c r="D51" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="D51" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="24">
+        <v>45592.0</v>
+      </c>
+      <c r="H51" s="24">
+        <v>45596.0</v>
+      </c>
       <c r="I51" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="74" t="s">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L51" s="27"/>
       <c r="M51" s="4"/>
       <c r="N51" s="5"/>
       <c r="O51" s="39"/>
       <c r="P51" s="39"/>
-      <c r="Q51" s="49"/>
+      <c r="Q51" s="74"/>
       <c r="R51" s="69"/>
       <c r="S51" s="51"/>
       <c r="T51" s="51"/>
@@ -4578,7 +4616,7 @@
       <c r="X51" s="51"/>
       <c r="Y51" s="51"/>
       <c r="Z51" s="52"/>
-      <c r="AA51" s="76"/>
+      <c r="AA51" s="75"/>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="4"/>
@@ -4587,24 +4625,30 @@
         <v>42.0</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="24">
+        <v>45596.0</v>
+      </c>
+      <c r="H52" s="24">
+        <v>45603.0</v>
+      </c>
       <c r="I52" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J52" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="74" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L52" s="27"/>
       <c r="M52" s="4"/>
@@ -4613,17 +4657,17 @@
       <c r="P52" s="39"/>
       <c r="Q52" s="34"/>
       <c r="R52" s="69" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S52" s="51"/>
       <c r="T52" s="52"/>
       <c r="U52" s="69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V52" s="51"/>
       <c r="W52" s="52"/>
       <c r="X52" s="69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Y52" s="51"/>
       <c r="Z52" s="52"/>
@@ -4636,44 +4680,50 @@
         <v>43.0</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+        <v>87</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="24">
+        <v>45603.0</v>
+      </c>
+      <c r="H53" s="24">
+        <v>45608.0</v>
+      </c>
       <c r="I53" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J53" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="L53" s="68"/>
+        <v>10</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="27"/>
       <c r="M53" s="4"/>
       <c r="N53" s="5"/>
       <c r="O53" s="39"/>
       <c r="P53" s="39"/>
       <c r="Q53" s="34"/>
       <c r="R53" s="61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S53" s="31"/>
       <c r="T53" s="32"/>
-      <c r="U53" s="77">
-        <f>SUM(((J6)*100)/(J6+J22+J59))</f>
+      <c r="U53" s="76">
+        <f>SUM(((J6)*100)/(J6+J22+J61))</f>
         <v>18.75</v>
       </c>
       <c r="V53" s="31"/>
       <c r="W53" s="32"/>
-      <c r="X53" s="78">
-        <f>SUM(((J6)*100)/(J6+J22+J59))</f>
+      <c r="X53" s="77">
+        <f>SUM(((J6)*100)/(J6+J22+J61))</f>
         <v>18.75</v>
       </c>
       <c r="Y53" s="31"/>
@@ -4687,24 +4737,30 @@
         <v>44.0</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+        <v>89</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="24">
+        <v>45603.0</v>
+      </c>
+      <c r="H54" s="24">
+        <v>45608.0</v>
+      </c>
       <c r="I54" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J54" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="74" t="s">
-        <v>79</v>
+        <v>10</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L54" s="27"/>
       <c r="M54" s="4"/>
@@ -4712,19 +4768,19 @@
       <c r="O54" s="39"/>
       <c r="P54" s="39"/>
       <c r="Q54" s="34"/>
-      <c r="R54" s="79" t="s">
+      <c r="R54" s="78" t="s">
         <v>44</v>
       </c>
       <c r="S54" s="31"/>
       <c r="T54" s="32"/>
       <c r="U54" s="55">
-        <f>(((J6+J23)*100)/(J6+J22+J59))</f>
+        <f>(((J6+J23)*100)/(J6+J22+J61))</f>
         <v>37.5</v>
       </c>
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
-      <c r="X54" s="80">
-        <f>SUM(((J23)*100)/(J6+J22+J59))</f>
+      <c r="X54" s="79">
+        <f>SUM(((J23)*100)/(J6+J22+J61))</f>
         <v>18.75</v>
       </c>
       <c r="Y54" s="56"/>
@@ -4737,43 +4793,51 @@
       <c r="C55" s="38">
         <v>45.0</v>
       </c>
-      <c r="D55" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="37"/>
+      <c r="D55" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="24">
+        <v>45608.0</v>
+      </c>
+      <c r="H55" s="24">
+        <v>45610.0</v>
+      </c>
       <c r="I55" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="L55" s="27"/>
+        <v>4</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="68"/>
       <c r="M55" s="4"/>
       <c r="N55" s="5"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
       <c r="Q55" s="34"/>
-      <c r="R55" s="79" t="s">
+      <c r="R55" s="78" t="s">
         <v>59</v>
       </c>
       <c r="S55" s="31"/>
       <c r="T55" s="32"/>
-      <c r="U55" s="77">
-        <f>(((J6+J23+J34)*100)/(J6+J22+J59))</f>
+      <c r="U55" s="76">
+        <f>(((J6+J23+J34)*100)/(J6+J22+J61))</f>
         <v>54.46428571</v>
       </c>
       <c r="V55" s="31"/>
       <c r="W55" s="32"/>
-      <c r="X55" s="78">
-        <f>SUM(((J34)*100)/(J6+J22+J59))</f>
+      <c r="X55" s="77">
+        <f>SUM(((J34)*100)/(J6+J22+J61))</f>
         <v>16.96428571</v>
       </c>
       <c r="Y55" s="31"/>
@@ -4786,43 +4850,49 @@
       <c r="C56" s="38">
         <v>46.0</v>
       </c>
-      <c r="D56" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="37"/>
+      <c r="D56" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="24">
+        <v>45608.0</v>
+      </c>
+      <c r="H56" s="24">
+        <v>45610.0</v>
+      </c>
       <c r="I56" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="L56" s="27"/>
+        <v>4</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="68"/>
       <c r="M56" s="4"/>
       <c r="N56" s="5"/>
       <c r="Q56" s="34"/>
-      <c r="R56" s="79" t="s">
-        <v>81</v>
+      <c r="R56" s="78" t="s">
+        <v>79</v>
       </c>
       <c r="S56" s="31"/>
       <c r="T56" s="32"/>
-      <c r="U56" s="77">
-        <f>(((J6+J23+J34+J48)*100)/(J6+J22+J59))</f>
+      <c r="U56" s="76">
+        <f>(((J6+J23+J34+J48)*100)/(J6+J22+J61))</f>
         <v>81.25</v>
       </c>
       <c r="V56" s="31"/>
       <c r="W56" s="32"/>
-      <c r="X56" s="78">
-        <f>SUM(((J48)*100)/(J6+J22+J59))</f>
+      <c r="X56" s="77">
+        <f>SUM(((J48)*100)/(J6+J22+J61))</f>
         <v>26.78571429</v>
       </c>
       <c r="Y56" s="31"/>
@@ -4835,42 +4905,48 @@
       <c r="C57" s="38">
         <v>47.0</v>
       </c>
-      <c r="D57" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="37"/>
+      <c r="D57" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="24">
+        <v>45608.0</v>
+      </c>
+      <c r="H57" s="24">
+        <v>45610.0</v>
+      </c>
       <c r="I57" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="74" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L57" s="27"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5"/>
       <c r="Q57" s="34"/>
       <c r="R57" s="61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S57" s="31"/>
       <c r="T57" s="32"/>
-      <c r="U57" s="81">
-        <f>(((J6+J22)*100)/(J6+J22+J59))</f>
+      <c r="U57" s="80">
+        <f>(((J6+J22)*100)/(J6+J22+J61))</f>
         <v>81.25</v>
       </c>
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
-      <c r="X57" s="81">
+      <c r="X57" s="80">
         <f>SUM(X54:Z56)</f>
         <v>62.5</v>
       </c>
@@ -4884,43 +4960,49 @@
       <c r="C58" s="38">
         <v>48.0</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="22" t="s">
+      <c r="D58" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
+      <c r="F58" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="24">
+        <v>45610.0</v>
+      </c>
+      <c r="H58" s="24">
+        <v>45612.0</v>
+      </c>
       <c r="I58" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="74" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L58" s="27"/>
       <c r="M58" s="4"/>
       <c r="N58" s="5"/>
       <c r="Q58" s="34"/>
-      <c r="R58" s="79" t="s">
-        <v>98</v>
+      <c r="R58" s="78" t="s">
+        <v>95</v>
       </c>
       <c r="S58" s="31"/>
       <c r="T58" s="32"/>
       <c r="U58" s="58">
-        <f>(((J6+J22+J60)*100)/(J6+J22+J59))</f>
+        <f>(((J6+J22+J62)*100)/(J6+J22+J62))</f>
         <v>100</v>
       </c>
       <c r="V58" s="31"/>
       <c r="W58" s="32"/>
       <c r="X58" s="58">
-        <f>SUM(((J60)*100)/(J6+J22+J59))</f>
+        <f>SUM(((J62)*100)/(J6+J22+J61))</f>
         <v>18.75</v>
       </c>
       <c r="Y58" s="31"/>
@@ -4930,44 +5012,52 @@
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="16">
-        <v>45621.0</v>
-      </c>
-      <c r="H59" s="17">
-        <v>45642.0</v>
-      </c>
-      <c r="I59" s="12">
+      <c r="C59" s="38">
+        <v>49.0</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="24">
+        <v>45612.0</v>
+      </c>
+      <c r="H59" s="24">
+        <v>45620.0</v>
+      </c>
+      <c r="I59" s="25">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="J59" s="12">
+        <v>8</v>
+      </c>
+      <c r="J59" s="25">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
+        <v>16</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="27"/>
       <c r="M59" s="4"/>
       <c r="N59" s="5"/>
       <c r="Q59" s="40"/>
       <c r="R59" s="61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S59" s="31"/>
       <c r="T59" s="32"/>
       <c r="U59" s="58">
-        <f>(((J6+J22+J59)*100)/(J6+J22+J59))</f>
+        <f>(((J6+J22+J61)*100)/(J6+J22+J61))</f>
         <v>100</v>
       </c>
       <c r="V59" s="31"/>
       <c r="W59" s="32"/>
       <c r="X59" s="58">
-        <f>SUM(((J59)*100)/(J6+J22+J59))</f>
+        <f>SUM(((J61)*100)/(J6+J22+J61))</f>
         <v>18.75</v>
       </c>
       <c r="Y59" s="31"/>
@@ -4977,30 +5067,36 @@
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="62" t="s">
+      <c r="C60" s="38">
+        <v>50.0</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="82">
+      <c r="E60" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="24">
+        <v>45620.0</v>
+      </c>
+      <c r="H60" s="24">
         <v>45621.0</v>
       </c>
-      <c r="H60" s="64">
-        <v>45642.0</v>
-      </c>
-      <c r="I60" s="65">
+      <c r="I60" s="25">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="J60" s="65">
+        <v>1</v>
+      </c>
+      <c r="J60" s="25">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="K60" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="L60" s="66"/>
+        <v>2</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="27"/>
       <c r="M60" s="4"/>
       <c r="N60" s="5"/>
       <c r="Q60" s="67"/>
@@ -5009,30 +5105,28 @@
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="38">
-        <v>49.0</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="25">
+      <c r="C61" s="21"/>
+      <c r="D61" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="16">
+        <v>45621.0</v>
+      </c>
+      <c r="H61" s="17">
+        <v>45642.0</v>
+      </c>
+      <c r="I61" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="25">
+        <v>21</v>
+      </c>
+      <c r="J61" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="L61" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5"/>
       <c r="Q61" s="44"/>
@@ -5050,30 +5144,28 @@
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="38">
-        <v>50.0</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="25">
+      <c r="C62" s="38"/>
+      <c r="D62" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="81">
+        <v>45621.0</v>
+      </c>
+      <c r="H62" s="64">
+        <v>45642.0</v>
+      </c>
+      <c r="I62" s="65">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="25">
+        <v>21</v>
+      </c>
+      <c r="J62" s="65">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="L62" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="K62" s="73"/>
+      <c r="L62" s="66"/>
       <c r="M62" s="4"/>
       <c r="N62" s="5"/>
     </row>
@@ -5083,25 +5175,31 @@
       <c r="C63" s="38">
         <v>51.0</v>
       </c>
-      <c r="D63" s="21" t="s">
-        <v>103</v>
+      <c r="D63" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
+      <c r="F63" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="24">
+        <v>45621.0</v>
+      </c>
+      <c r="H63" s="24">
+        <v>45622.0</v>
+      </c>
       <c r="I63" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="74" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="L63" s="27"/>
       <c r="M63" s="4"/>
@@ -5114,24 +5212,28 @@
         <v>52.0</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E64" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="22"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
+      <c r="G64" s="24">
+        <v>45622.0</v>
+      </c>
+      <c r="H64" s="24">
+        <v>45635.0</v>
+      </c>
       <c r="I64" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J64" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="74" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="K64" s="82" t="s">
+        <v>102</v>
       </c>
       <c r="L64" s="27"/>
       <c r="M64" s="4"/>
@@ -5143,88 +5245,158 @@
       <c r="C65" s="38">
         <v>53.0</v>
       </c>
-      <c r="D65" s="21" t="s">
-        <v>105</v>
+      <c r="D65" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="E65" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="22"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="G65" s="24">
+        <v>45635.0</v>
+      </c>
+      <c r="H65" s="24">
+        <v>45641.0</v>
+      </c>
       <c r="I65" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J65" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="74" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="K65" s="83" t="s">
+        <v>104</v>
       </c>
       <c r="L65" s="27"/>
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
     </row>
     <row r="66" ht="22.5" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="86"/>
-      <c r="L66" s="86"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="8"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="38">
+        <v>54.0</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="22"/>
+      <c r="G66" s="24">
+        <v>45641.0</v>
+      </c>
+      <c r="H66" s="24">
+        <v>45642.0</v>
+      </c>
+      <c r="I66" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J66" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K66" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="L66" s="27"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="5"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="3"/>
+    <row r="67" ht="22.5" customHeight="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="38">
+        <v>55.0</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="22"/>
+      <c r="G67" s="24">
+        <v>45642.0</v>
+      </c>
+      <c r="H67" s="24">
+        <v>45643.0</v>
+      </c>
+      <c r="I67" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J67" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K67" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="L67" s="27"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="5"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4"/>
-      <c r="N68" s="5"/>
+    <row r="68" ht="22.5" customHeight="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="87"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="8"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4"/>
-      <c r="N69" s="5"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="87"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="46"/>
+      <c r="A70" s="4"/>
+      <c r="N70" s="5"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="88"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="46"/>
+    </row>
     <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
@@ -6156,6 +6328,8 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="91">
     <mergeCell ref="R8:T8"/>
@@ -6175,27 +6349,28 @@
     <mergeCell ref="U22:W22"/>
     <mergeCell ref="Q8:Q11"/>
     <mergeCell ref="Q51:Q59"/>
-    <mergeCell ref="Q39:Q44"/>
     <mergeCell ref="R57:T57"/>
     <mergeCell ref="U57:W57"/>
     <mergeCell ref="R58:T58"/>
     <mergeCell ref="U58:W58"/>
     <mergeCell ref="R59:T59"/>
     <mergeCell ref="U59:W59"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="A67:N70"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="Q45:X46"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="A69:N72"/>
     <mergeCell ref="A1:N4"/>
+    <mergeCell ref="A5:B68"/>
+    <mergeCell ref="M5:N68"/>
     <mergeCell ref="Q6:X7"/>
     <mergeCell ref="U8:W8"/>
     <mergeCell ref="X8:X11"/>
-    <mergeCell ref="A5:B66"/>
-    <mergeCell ref="M5:N66"/>
-    <mergeCell ref="X39:X44"/>
+    <mergeCell ref="Q45:X46"/>
     <mergeCell ref="R42:T42"/>
     <mergeCell ref="R43:T43"/>
+    <mergeCell ref="X39:X44"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="Q39:Q44"/>
     <mergeCell ref="R39:W39"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="U40:W40"/>
@@ -6208,7 +6383,6 @@
     <mergeCell ref="U53:W53"/>
     <mergeCell ref="R54:T54"/>
     <mergeCell ref="U54:W54"/>
-    <mergeCell ref="U43:W43"/>
     <mergeCell ref="X54:Z54"/>
     <mergeCell ref="R55:T55"/>
     <mergeCell ref="U55:W55"/>
@@ -6288,11 +6462,25 @@
     <hyperlink r:id="rId35" ref="F44"/>
     <hyperlink r:id="rId36" ref="F45"/>
     <hyperlink r:id="rId37" ref="F46"/>
+    <hyperlink r:id="rId38" ref="F47"/>
+    <hyperlink r:id="rId39" ref="F49"/>
+    <hyperlink r:id="rId40" ref="F50"/>
+    <hyperlink r:id="rId41" ref="F51"/>
+    <hyperlink r:id="rId42" ref="F52"/>
+    <hyperlink r:id="rId43" ref="F53"/>
+    <hyperlink r:id="rId44" ref="F54"/>
+    <hyperlink r:id="rId45" ref="F55"/>
+    <hyperlink r:id="rId46" ref="F56"/>
+    <hyperlink r:id="rId47" ref="F57"/>
+    <hyperlink r:id="rId48" ref="F58"/>
+    <hyperlink r:id="rId49" ref="F59"/>
+    <hyperlink r:id="rId50" ref="F60"/>
+    <hyperlink r:id="rId51" ref="F63"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId38"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -6313,37 +6501,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="88"/>
-      <c r="EM1" s="89"/>
-      <c r="EN1" s="90"/>
-      <c r="EO1" s="90"/>
-      <c r="EP1" s="90"/>
-      <c r="EQ1" s="90"/>
-      <c r="ER1" s="90"/>
-      <c r="ES1" s="90"/>
-      <c r="ET1" s="90"/>
-      <c r="EU1" s="90"/>
-      <c r="EV1" s="90"/>
-      <c r="EW1" s="90"/>
-      <c r="EX1" s="90"/>
-      <c r="EY1" s="90"/>
-      <c r="EZ1" s="90"/>
-      <c r="FA1" s="90"/>
-      <c r="FB1" s="90"/>
-      <c r="FC1" s="90"/>
+      <c r="A1" s="89"/>
+      <c r="EM1" s="90"/>
+      <c r="EN1" s="91"/>
+      <c r="EO1" s="91"/>
+      <c r="EP1" s="91"/>
+      <c r="EQ1" s="91"/>
+      <c r="ER1" s="91"/>
+      <c r="ES1" s="91"/>
+      <c r="ET1" s="91"/>
+      <c r="EU1" s="91"/>
+      <c r="EV1" s="91"/>
+      <c r="EW1" s="91"/>
+      <c r="EX1" s="91"/>
+      <c r="EY1" s="91"/>
+      <c r="EZ1" s="91"/>
+      <c r="FA1" s="91"/>
+      <c r="FB1" s="91"/>
+      <c r="FC1" s="91"/>
     </row>
     <row r="2">
-      <c r="EM2" s="89"/>
+      <c r="EM2" s="90"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93" t="s">
         <v>107</v>
+      </c>
+      <c r="O3" s="90"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95" t="s">
+        <v>108</v>
       </c>
       <c r="R3" s="51"/>
       <c r="S3" s="51"/>
@@ -6470,11 +6658,11 @@
       <c r="EJ3" s="51"/>
       <c r="EK3" s="51"/>
       <c r="EL3" s="52"/>
-      <c r="EM3" s="93"/>
+      <c r="EM3" s="94"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="95"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
@@ -6488,8 +6676,8 @@
       <c r="M4" s="51"/>
       <c r="N4" s="51"/>
       <c r="O4" s="52"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="97">
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98">
         <v>1.0</v>
       </c>
       <c r="R4" s="31"/>
@@ -6570,43 +6758,43 @@
       <c r="BY4" s="31"/>
       <c r="BZ4" s="31"/>
       <c r="CA4" s="32"/>
-      <c r="CB4" s="98">
+      <c r="CB4" s="99">
         <v>10.0</v>
       </c>
-      <c r="CH4" s="89"/>
-      <c r="CI4" s="98">
+      <c r="CH4" s="90"/>
+      <c r="CI4" s="99">
         <v>11.0</v>
       </c>
-      <c r="CO4" s="89"/>
-      <c r="CP4" s="98">
+      <c r="CO4" s="90"/>
+      <c r="CP4" s="99">
         <v>12.0</v>
       </c>
-      <c r="CV4" s="89"/>
-      <c r="CW4" s="98">
+      <c r="CV4" s="90"/>
+      <c r="CW4" s="99">
         <v>13.0</v>
       </c>
-      <c r="DC4" s="89"/>
-      <c r="DD4" s="98">
+      <c r="DC4" s="90"/>
+      <c r="DD4" s="99">
         <v>14.0</v>
       </c>
-      <c r="DJ4" s="89"/>
-      <c r="DK4" s="98">
+      <c r="DJ4" s="90"/>
+      <c r="DK4" s="99">
         <v>15.0</v>
       </c>
-      <c r="DQ4" s="89"/>
-      <c r="DR4" s="98">
+      <c r="DQ4" s="90"/>
+      <c r="DR4" s="99">
         <v>16.0</v>
       </c>
-      <c r="DX4" s="89"/>
-      <c r="DY4" s="98">
+      <c r="DX4" s="90"/>
+      <c r="DY4" s="99">
         <v>17.0</v>
       </c>
-      <c r="EE4" s="89"/>
-      <c r="EF4" s="98">
+      <c r="EE4" s="90"/>
+      <c r="EF4" s="99">
         <v>18.0</v>
       </c>
-      <c r="EL4" s="89"/>
-      <c r="EM4" s="96"/>
+      <c r="EL4" s="90"/>
+      <c r="EM4" s="97"/>
     </row>
     <row r="5">
       <c r="A5" s="4"/>
@@ -6621,405 +6809,405 @@
       <c r="F5" s="31"/>
       <c r="G5" s="32"/>
       <c r="H5" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5" s="32"/>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="100" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="32"/>
-      <c r="N5" s="100" t="s">
+      <c r="N5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="89"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="101" t="s">
-        <v>110</v>
+      <c r="O5" s="90"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="102" t="s">
+        <v>111</v>
       </c>
       <c r="R5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="W5" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="X5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="Y5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD5" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="AF5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="AG5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="AI5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="W5" s="102" t="s">
+      <c r="AJ5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="X5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y5" s="25" t="s">
+      <c r="AK5" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="AM5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR5" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AT5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AU5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AW5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AD5" s="102" t="s">
+      <c r="AX5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AE5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF5" s="25" t="s">
+      <c r="AY5" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AG5" s="25" t="s">
+      <c r="BA5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF5" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AH5" s="25" t="s">
+      <c r="BH5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AI5" s="25" t="s">
+      <c r="BI5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AJ5" s="25" t="s">
+      <c r="BK5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AK5" s="102" t="s">
+      <c r="BL5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AL5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM5" s="25" t="s">
+      <c r="BM5" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AN5" s="25" t="s">
+      <c r="BO5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT5" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AO5" s="25" t="s">
+      <c r="BV5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AP5" s="25" t="s">
+      <c r="BW5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="BX5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AQ5" s="25" t="s">
+      <c r="BY5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AR5" s="102" t="s">
+      <c r="BZ5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AS5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT5" s="25" t="s">
+      <c r="CA5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="CB5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AU5" s="25" t="s">
+      <c r="CC5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="CE5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="CH5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AV5" s="25" t="s">
+      <c r="CJ5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AW5" s="25" t="s">
+      <c r="CK5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AX5" s="25" t="s">
+      <c r="CM5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AY5" s="102" t="s">
+      <c r="CN5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AZ5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA5" s="25" t="s">
+      <c r="CO5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="CP5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="BB5" s="25" t="s">
+      <c r="CQ5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="CR5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="CS5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="CT5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="CU5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="CV5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="CW5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="BC5" s="25" t="s">
+      <c r="CX5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="BD5" s="25" t="s">
+      <c r="CY5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="BE5" s="25" t="s">
+      <c r="DA5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="BF5" s="102" t="s">
+      <c r="DB5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="BG5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH5" s="25" t="s">
+      <c r="DC5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="BI5" s="25" t="s">
+      <c r="DE5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="DF5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="DG5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="DH5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="DI5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="DJ5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="DK5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="BJ5" s="25" t="s">
+      <c r="DL5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="BK5" s="25" t="s">
+      <c r="DM5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="DN5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="BL5" s="25" t="s">
+      <c r="DO5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="BM5" s="102" t="s">
+      <c r="DP5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="BN5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO5" s="25" t="s">
+      <c r="DQ5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="DR5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="BP5" s="25" t="s">
+      <c r="DS5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="DT5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="DU5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="DV5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="DW5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="DX5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="DY5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="BQ5" s="25" t="s">
+      <c r="DZ5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="BR5" s="25" t="s">
+      <c r="EA5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="EB5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="BS5" s="25" t="s">
+      <c r="EC5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="BT5" s="102" t="s">
+      <c r="ED5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="BU5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV5" s="25" t="s">
+      <c r="EE5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="EF5" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="BW5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="BX5" s="25" t="s">
+      <c r="EG5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="BY5" s="25" t="s">
+      <c r="EH5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="EI5" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="BZ5" s="25" t="s">
+      <c r="EJ5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="CA5" s="103" t="s">
+      <c r="EK5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="CB5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="CD5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="CE5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="CF5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="CG5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="CH5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="CI5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="CJ5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="CK5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="CL5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="CM5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="CN5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="CO5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="CP5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="CR5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="CS5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="CT5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="CU5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="CV5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="CW5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="CY5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="CZ5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="DA5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="DB5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="DC5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="DD5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="DE5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="DF5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="DG5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="DH5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="DI5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="DK5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="DM5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="DN5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="DO5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="DP5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="DQ5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="DR5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="DS5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="DT5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="DU5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="DV5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="DW5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="DX5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="DY5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="DZ5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="EA5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="EB5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="EC5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="ED5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="EE5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="EF5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="EG5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="EH5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="EI5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="EJ5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="EK5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="EL5" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="EM5" s="96"/>
+      <c r="EL5" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="EM5" s="97"/>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
-      <c r="B6" s="104"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="30" t="s">
         <v>10</v>
       </c>
@@ -7027,38 +7215,38 @@
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="105">
+      <c r="H6" s="106">
         <v>45530.0</v>
       </c>
       <c r="I6" s="32"/>
-      <c r="J6" s="106">
+      <c r="J6" s="107">
         <v>45551.0</v>
       </c>
       <c r="K6" s="32"/>
-      <c r="L6" s="99">
-        <f t="shared" ref="L6:L65" si="1">(J6-H6)</f>
+      <c r="L6" s="100">
+        <f t="shared" ref="L6:L67" si="1">(J6-H6)</f>
         <v>21</v>
       </c>
       <c r="M6" s="32"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="103" t="s">
-        <v>91</v>
+      <c r="N6" s="108"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="104" t="s">
+        <v>88</v>
       </c>
       <c r="AF6" s="31"/>
       <c r="AG6" s="31"/>
@@ -7080,102 +7268,102 @@
       <c r="AW6" s="31"/>
       <c r="AX6" s="31"/>
       <c r="AY6" s="32"/>
-      <c r="AZ6" s="109"/>
-      <c r="BA6" s="109"/>
-      <c r="BB6" s="109"/>
-      <c r="BC6" s="109"/>
-      <c r="BD6" s="109"/>
-      <c r="BE6" s="109"/>
-      <c r="BF6" s="109"/>
-      <c r="BG6" s="109"/>
-      <c r="BH6" s="109"/>
-      <c r="BI6" s="109"/>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="109"/>
-      <c r="BL6" s="109"/>
-      <c r="BM6" s="109"/>
-      <c r="BN6" s="109"/>
-      <c r="BO6" s="109"/>
-      <c r="BP6" s="109"/>
-      <c r="BQ6" s="109"/>
-      <c r="BR6" s="109"/>
-      <c r="BS6" s="109"/>
-      <c r="BT6" s="109"/>
-      <c r="BU6" s="109"/>
-      <c r="BV6" s="109"/>
-      <c r="BW6" s="109"/>
-      <c r="BX6" s="109"/>
-      <c r="BY6" s="109"/>
-      <c r="BZ6" s="109"/>
-      <c r="CA6" s="110"/>
-      <c r="CB6" s="109"/>
-      <c r="CC6" s="109"/>
-      <c r="CD6" s="109"/>
-      <c r="CE6" s="109"/>
-      <c r="CF6" s="109"/>
-      <c r="CG6" s="109"/>
-      <c r="CH6" s="110"/>
-      <c r="CI6" s="109"/>
-      <c r="CJ6" s="109"/>
-      <c r="CK6" s="109"/>
-      <c r="CL6" s="109"/>
-      <c r="CM6" s="109"/>
-      <c r="CN6" s="109"/>
-      <c r="CO6" s="110"/>
-      <c r="CP6" s="109"/>
-      <c r="CQ6" s="109"/>
-      <c r="CR6" s="109"/>
-      <c r="CS6" s="109"/>
-      <c r="CT6" s="109"/>
-      <c r="CU6" s="109"/>
-      <c r="CV6" s="110"/>
-      <c r="CW6" s="109"/>
-      <c r="CX6" s="109"/>
-      <c r="CY6" s="109"/>
-      <c r="CZ6" s="109"/>
-      <c r="DA6" s="109"/>
-      <c r="DB6" s="109"/>
-      <c r="DC6" s="110"/>
-      <c r="DD6" s="109"/>
-      <c r="DE6" s="109"/>
-      <c r="DF6" s="109"/>
-      <c r="DG6" s="109"/>
-      <c r="DH6" s="109"/>
-      <c r="DI6" s="109"/>
-      <c r="DJ6" s="110"/>
-      <c r="DK6" s="109"/>
-      <c r="DL6" s="109"/>
-      <c r="DM6" s="109"/>
-      <c r="DN6" s="109"/>
-      <c r="DO6" s="109"/>
-      <c r="DP6" s="109"/>
-      <c r="DQ6" s="110"/>
-      <c r="DR6" s="109"/>
-      <c r="DS6" s="109"/>
-      <c r="DT6" s="109"/>
-      <c r="DU6" s="109"/>
-      <c r="DV6" s="109"/>
-      <c r="DW6" s="109"/>
-      <c r="DX6" s="110"/>
-      <c r="DY6" s="109"/>
-      <c r="DZ6" s="109"/>
-      <c r="EA6" s="109"/>
-      <c r="EB6" s="109"/>
-      <c r="EC6" s="109"/>
-      <c r="ED6" s="109"/>
-      <c r="EE6" s="110"/>
-      <c r="EF6" s="109"/>
-      <c r="EG6" s="109"/>
-      <c r="EH6" s="109"/>
-      <c r="EI6" s="109"/>
-      <c r="EJ6" s="109"/>
-      <c r="EK6" s="109"/>
-      <c r="EL6" s="110"/>
-      <c r="EM6" s="96"/>
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="110"/>
+      <c r="BC6" s="110"/>
+      <c r="BD6" s="110"/>
+      <c r="BE6" s="110"/>
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="110"/>
+      <c r="BI6" s="110"/>
+      <c r="BJ6" s="110"/>
+      <c r="BK6" s="110"/>
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="110"/>
+      <c r="BP6" s="110"/>
+      <c r="BQ6" s="110"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="110"/>
+      <c r="BU6" s="110"/>
+      <c r="BV6" s="110"/>
+      <c r="BW6" s="110"/>
+      <c r="BX6" s="110"/>
+      <c r="BY6" s="110"/>
+      <c r="BZ6" s="110"/>
+      <c r="CA6" s="111"/>
+      <c r="CB6" s="110"/>
+      <c r="CC6" s="110"/>
+      <c r="CD6" s="110"/>
+      <c r="CE6" s="110"/>
+      <c r="CF6" s="110"/>
+      <c r="CG6" s="110"/>
+      <c r="CH6" s="111"/>
+      <c r="CI6" s="110"/>
+      <c r="CJ6" s="110"/>
+      <c r="CK6" s="110"/>
+      <c r="CL6" s="110"/>
+      <c r="CM6" s="110"/>
+      <c r="CN6" s="110"/>
+      <c r="CO6" s="111"/>
+      <c r="CP6" s="110"/>
+      <c r="CQ6" s="110"/>
+      <c r="CR6" s="110"/>
+      <c r="CS6" s="110"/>
+      <c r="CT6" s="110"/>
+      <c r="CU6" s="110"/>
+      <c r="CV6" s="111"/>
+      <c r="CW6" s="110"/>
+      <c r="CX6" s="110"/>
+      <c r="CY6" s="110"/>
+      <c r="CZ6" s="110"/>
+      <c r="DA6" s="110"/>
+      <c r="DB6" s="110"/>
+      <c r="DC6" s="111"/>
+      <c r="DD6" s="110"/>
+      <c r="DE6" s="110"/>
+      <c r="DF6" s="110"/>
+      <c r="DG6" s="110"/>
+      <c r="DH6" s="110"/>
+      <c r="DI6" s="110"/>
+      <c r="DJ6" s="111"/>
+      <c r="DK6" s="110"/>
+      <c r="DL6" s="110"/>
+      <c r="DM6" s="110"/>
+      <c r="DN6" s="110"/>
+      <c r="DO6" s="110"/>
+      <c r="DP6" s="110"/>
+      <c r="DQ6" s="111"/>
+      <c r="DR6" s="110"/>
+      <c r="DS6" s="110"/>
+      <c r="DT6" s="110"/>
+      <c r="DU6" s="110"/>
+      <c r="DV6" s="110"/>
+      <c r="DW6" s="110"/>
+      <c r="DX6" s="111"/>
+      <c r="DY6" s="110"/>
+      <c r="DZ6" s="110"/>
+      <c r="EA6" s="110"/>
+      <c r="EB6" s="110"/>
+      <c r="EC6" s="110"/>
+      <c r="ED6" s="110"/>
+      <c r="EE6" s="111"/>
+      <c r="EF6" s="110"/>
+      <c r="EG6" s="110"/>
+      <c r="EH6" s="110"/>
+      <c r="EI6" s="110"/>
+      <c r="EJ6" s="110"/>
+      <c r="EK6" s="110"/>
+      <c r="EL6" s="111"/>
+      <c r="EM6" s="97"/>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
-      <c r="B7" s="111">
+      <c r="B7" s="26">
         <v>1.0</v>
       </c>
       <c r="C7" s="112" t="s">
@@ -7202,7 +7390,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="32"/>
-      <c r="P7" s="96"/>
+      <c r="P7" s="97"/>
       <c r="Q7" s="116"/>
       <c r="R7" s="117"/>
       <c r="S7" s="117"/>
@@ -7329,11 +7517,11 @@
       <c r="EJ7" s="117"/>
       <c r="EK7" s="117"/>
       <c r="EL7" s="119"/>
-      <c r="EM7" s="96"/>
+      <c r="EM7" s="97"/>
     </row>
     <row r="8">
       <c r="A8" s="4"/>
-      <c r="B8" s="111">
+      <c r="B8" s="26">
         <v>2.0</v>
       </c>
       <c r="C8" s="112" t="s">
@@ -7360,7 +7548,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="32"/>
-      <c r="P8" s="96"/>
+      <c r="P8" s="97"/>
       <c r="Q8" s="116"/>
       <c r="R8" s="117"/>
       <c r="S8" s="117"/>
@@ -7487,11 +7675,11 @@
       <c r="EJ8" s="117"/>
       <c r="EK8" s="117"/>
       <c r="EL8" s="119"/>
-      <c r="EM8" s="96"/>
+      <c r="EM8" s="97"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
-      <c r="B9" s="111">
+      <c r="B9" s="26">
         <v>3.0</v>
       </c>
       <c r="C9" s="112" t="s">
@@ -7518,7 +7706,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="32"/>
-      <c r="P9" s="96"/>
+      <c r="P9" s="97"/>
       <c r="Q9" s="116"/>
       <c r="R9" s="117"/>
       <c r="S9" s="117"/>
@@ -7645,11 +7833,11 @@
       <c r="EJ9" s="117"/>
       <c r="EK9" s="117"/>
       <c r="EL9" s="119"/>
-      <c r="EM9" s="96"/>
+      <c r="EM9" s="97"/>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
-      <c r="B10" s="111">
+      <c r="B10" s="26">
         <v>4.0</v>
       </c>
       <c r="C10" s="112" t="s">
@@ -7676,7 +7864,7 @@
         <v>20</v>
       </c>
       <c r="O10" s="32"/>
-      <c r="P10" s="96"/>
+      <c r="P10" s="97"/>
       <c r="Q10" s="116"/>
       <c r="R10" s="117"/>
       <c r="S10" s="117"/>
@@ -7803,11 +7991,11 @@
       <c r="EJ10" s="117"/>
       <c r="EK10" s="117"/>
       <c r="EL10" s="119"/>
-      <c r="EM10" s="96"/>
+      <c r="EM10" s="97"/>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
-      <c r="B11" s="111">
+      <c r="B11" s="26">
         <v>5.0</v>
       </c>
       <c r="C11" s="124" t="s">
@@ -7834,7 +8022,7 @@
         <v>20</v>
       </c>
       <c r="O11" s="32"/>
-      <c r="P11" s="96"/>
+      <c r="P11" s="97"/>
       <c r="Q11" s="116"/>
       <c r="R11" s="117"/>
       <c r="S11" s="117"/>
@@ -7961,11 +8149,11 @@
       <c r="EJ11" s="117"/>
       <c r="EK11" s="117"/>
       <c r="EL11" s="119"/>
-      <c r="EM11" s="96"/>
+      <c r="EM11" s="97"/>
     </row>
     <row r="12">
       <c r="A12" s="4"/>
-      <c r="B12" s="111">
+      <c r="B12" s="26">
         <v>6.0</v>
       </c>
       <c r="C12" s="112" t="s">
@@ -7992,7 +8180,7 @@
         <v>20</v>
       </c>
       <c r="O12" s="32"/>
-      <c r="P12" s="96"/>
+      <c r="P12" s="97"/>
       <c r="Q12" s="116"/>
       <c r="R12" s="117"/>
       <c r="S12" s="117"/>
@@ -8119,11 +8307,11 @@
       <c r="EJ12" s="117"/>
       <c r="EK12" s="117"/>
       <c r="EL12" s="119"/>
-      <c r="EM12" s="96"/>
+      <c r="EM12" s="97"/>
     </row>
     <row r="13">
       <c r="A13" s="4"/>
-      <c r="B13" s="111">
+      <c r="B13" s="26">
         <v>7.0</v>
       </c>
       <c r="C13" s="112" t="s">
@@ -8150,7 +8338,7 @@
         <v>20</v>
       </c>
       <c r="O13" s="32"/>
-      <c r="P13" s="96"/>
+      <c r="P13" s="97"/>
       <c r="Q13" s="116"/>
       <c r="R13" s="117"/>
       <c r="S13" s="117"/>
@@ -8277,11 +8465,11 @@
       <c r="EJ13" s="117"/>
       <c r="EK13" s="117"/>
       <c r="EL13" s="119"/>
-      <c r="EM13" s="96"/>
+      <c r="EM13" s="97"/>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
-      <c r="B14" s="111">
+      <c r="B14" s="26">
         <v>8.0</v>
       </c>
       <c r="C14" s="112" t="s">
@@ -8308,7 +8496,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="32"/>
-      <c r="P14" s="96"/>
+      <c r="P14" s="97"/>
       <c r="Q14" s="116"/>
       <c r="R14" s="117"/>
       <c r="S14" s="117"/>
@@ -8435,11 +8623,11 @@
       <c r="EJ14" s="117"/>
       <c r="EK14" s="117"/>
       <c r="EL14" s="119"/>
-      <c r="EM14" s="96"/>
+      <c r="EM14" s="97"/>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
-      <c r="B15" s="111">
+      <c r="B15" s="26">
         <v>9.0</v>
       </c>
       <c r="C15" s="112" t="s">
@@ -8466,7 +8654,7 @@
         <v>20</v>
       </c>
       <c r="O15" s="32"/>
-      <c r="P15" s="96"/>
+      <c r="P15" s="97"/>
       <c r="Q15" s="116"/>
       <c r="R15" s="117"/>
       <c r="S15" s="117"/>
@@ -8593,11 +8781,11 @@
       <c r="EJ15" s="125"/>
       <c r="EK15" s="125"/>
       <c r="EL15" s="128"/>
-      <c r="EM15" s="96"/>
+      <c r="EM15" s="97"/>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
-      <c r="B16" s="111">
+      <c r="B16" s="26">
         <v>10.0</v>
       </c>
       <c r="C16" s="112" t="s">
@@ -8624,7 +8812,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="32"/>
-      <c r="P16" s="96"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="116"/>
       <c r="R16" s="117"/>
       <c r="S16" s="117"/>
@@ -8751,11 +8939,11 @@
       <c r="EJ16" s="125"/>
       <c r="EK16" s="125"/>
       <c r="EL16" s="128"/>
-      <c r="EM16" s="96"/>
+      <c r="EM16" s="97"/>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
-      <c r="B17" s="111">
+      <c r="B17" s="26">
         <v>11.0</v>
       </c>
       <c r="C17" s="112" t="s">
@@ -8782,7 +8970,7 @@
         <v>33</v>
       </c>
       <c r="O17" s="32"/>
-      <c r="P17" s="96"/>
+      <c r="P17" s="97"/>
       <c r="Q17" s="116"/>
       <c r="R17" s="117"/>
       <c r="S17" s="117"/>
@@ -8909,11 +9097,11 @@
       <c r="EJ17" s="117"/>
       <c r="EK17" s="117"/>
       <c r="EL17" s="119"/>
-      <c r="EM17" s="96"/>
+      <c r="EM17" s="97"/>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
-      <c r="B18" s="111">
+      <c r="B18" s="26">
         <v>12.0</v>
       </c>
       <c r="C18" s="112" t="s">
@@ -8940,7 +9128,7 @@
         <v>33</v>
       </c>
       <c r="O18" s="32"/>
-      <c r="P18" s="96"/>
+      <c r="P18" s="97"/>
       <c r="Q18" s="116"/>
       <c r="R18" s="117"/>
       <c r="S18" s="117"/>
@@ -9067,11 +9255,11 @@
       <c r="EJ18" s="117"/>
       <c r="EK18" s="117"/>
       <c r="EL18" s="119"/>
-      <c r="EM18" s="96"/>
+      <c r="EM18" s="97"/>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
-      <c r="B19" s="111">
+      <c r="B19" s="26">
         <v>13.0</v>
       </c>
       <c r="C19" s="112" t="s">
@@ -9098,7 +9286,7 @@
         <v>33</v>
       </c>
       <c r="O19" s="32"/>
-      <c r="P19" s="96"/>
+      <c r="P19" s="97"/>
       <c r="Q19" s="116"/>
       <c r="R19" s="117"/>
       <c r="S19" s="117"/>
@@ -9225,11 +9413,11 @@
       <c r="EJ19" s="117"/>
       <c r="EK19" s="117"/>
       <c r="EL19" s="119"/>
-      <c r="EM19" s="96"/>
+      <c r="EM19" s="97"/>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="B20" s="111">
+      <c r="B20" s="26">
         <v>14.0</v>
       </c>
       <c r="C20" s="112" t="s">
@@ -9256,7 +9444,7 @@
         <v>12</v>
       </c>
       <c r="O20" s="32"/>
-      <c r="P20" s="96"/>
+      <c r="P20" s="97"/>
       <c r="Q20" s="116"/>
       <c r="R20" s="117"/>
       <c r="S20" s="117"/>
@@ -9383,11 +9571,11 @@
       <c r="EJ20" s="117"/>
       <c r="EK20" s="117"/>
       <c r="EL20" s="119"/>
-      <c r="EM20" s="96"/>
+      <c r="EM20" s="97"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="111">
+      <c r="B21" s="26">
         <v>15.0</v>
       </c>
       <c r="C21" s="112" t="s">
@@ -9414,7 +9602,7 @@
         <v>12</v>
       </c>
       <c r="O21" s="32"/>
-      <c r="P21" s="96"/>
+      <c r="P21" s="97"/>
       <c r="Q21" s="116"/>
       <c r="R21" s="117"/>
       <c r="S21" s="117"/>
@@ -9541,11 +9729,11 @@
       <c r="EJ21" s="117"/>
       <c r="EK21" s="117"/>
       <c r="EL21" s="119"/>
-      <c r="EM21" s="96"/>
+      <c r="EM21" s="97"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="104"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="30" t="s">
         <v>42</v>
       </c>
@@ -9553,22 +9741,22 @@
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="106">
+      <c r="H22" s="107">
         <v>45551.0</v>
       </c>
       <c r="I22" s="32"/>
-      <c r="J22" s="106">
+      <c r="J22" s="107">
         <v>45621.0</v>
       </c>
       <c r="K22" s="32"/>
-      <c r="L22" s="99">
+      <c r="L22" s="100">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="M22" s="32"/>
-      <c r="N22" s="99"/>
+      <c r="N22" s="100"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="96"/>
+      <c r="P22" s="97"/>
       <c r="Q22" s="116"/>
       <c r="R22" s="117"/>
       <c r="S22" s="117"/>
@@ -9604,8 +9792,8 @@
       <c r="AW22" s="117"/>
       <c r="AX22" s="117"/>
       <c r="AY22" s="117"/>
-      <c r="AZ22" s="103" t="s">
-        <v>96</v>
+      <c r="AZ22" s="104" t="s">
+        <v>93</v>
       </c>
       <c r="BA22" s="31"/>
       <c r="BB22" s="31"/>
@@ -9697,11 +9885,11 @@
       <c r="EJ22" s="117"/>
       <c r="EK22" s="117"/>
       <c r="EL22" s="119"/>
-      <c r="EM22" s="96"/>
+      <c r="EM22" s="97"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="104"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="132" t="s">
         <v>44</v>
       </c>
@@ -9722,7 +9910,7 @@
         <v>21</v>
       </c>
       <c r="N23" s="134"/>
-      <c r="P23" s="96"/>
+      <c r="P23" s="97"/>
       <c r="Q23" s="116"/>
       <c r="R23" s="117"/>
       <c r="S23" s="117"/>
@@ -9851,11 +10039,11 @@
       <c r="EJ23" s="117"/>
       <c r="EK23" s="117"/>
       <c r="EL23" s="119"/>
-      <c r="EM23" s="96"/>
+      <c r="EM23" s="97"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="25">
+      <c r="B24" s="136">
         <v>16.0</v>
       </c>
       <c r="C24" s="112" t="s">
@@ -9878,11 +10066,11 @@
         <v>4</v>
       </c>
       <c r="M24" s="32"/>
-      <c r="N24" s="136" t="s">
+      <c r="N24" s="137" t="s">
         <v>46</v>
       </c>
       <c r="O24" s="32"/>
-      <c r="P24" s="96"/>
+      <c r="P24" s="97"/>
       <c r="Q24" s="116"/>
       <c r="R24" s="117"/>
       <c r="S24" s="117"/>
@@ -9918,7 +10106,7 @@
       <c r="AW24" s="117"/>
       <c r="AX24" s="117"/>
       <c r="AY24" s="117"/>
-      <c r="AZ24" s="137"/>
+      <c r="AZ24" s="138"/>
       <c r="BA24" s="31"/>
       <c r="BB24" s="31"/>
       <c r="BC24" s="32"/>
@@ -10009,11 +10197,11 @@
       <c r="EJ24" s="117"/>
       <c r="EK24" s="117"/>
       <c r="EL24" s="119"/>
-      <c r="EM24" s="96"/>
+      <c r="EM24" s="97"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="25">
+      <c r="B25" s="136">
         <v>17.0</v>
       </c>
       <c r="C25" s="112" t="s">
@@ -10036,11 +10224,11 @@
         <v>4</v>
       </c>
       <c r="M25" s="32"/>
-      <c r="N25" s="138" t="s">
+      <c r="N25" s="139" t="s">
         <v>48</v>
       </c>
       <c r="O25" s="32"/>
-      <c r="P25" s="96"/>
+      <c r="P25" s="97"/>
       <c r="Q25" s="116"/>
       <c r="R25" s="117"/>
       <c r="S25" s="117"/>
@@ -10076,7 +10264,7 @@
       <c r="AW25" s="117"/>
       <c r="AX25" s="117"/>
       <c r="AY25" s="117"/>
-      <c r="AZ25" s="139"/>
+      <c r="AZ25" s="140"/>
       <c r="BA25" s="31"/>
       <c r="BB25" s="31"/>
       <c r="BC25" s="32"/>
@@ -10167,11 +10355,11 @@
       <c r="EJ25" s="117"/>
       <c r="EK25" s="117"/>
       <c r="EL25" s="119"/>
-      <c r="EM25" s="96"/>
+      <c r="EM25" s="97"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="25">
+      <c r="B26" s="136">
         <v>18.0</v>
       </c>
       <c r="C26" s="112" t="s">
@@ -10194,11 +10382,11 @@
         <v>8</v>
       </c>
       <c r="M26" s="32"/>
-      <c r="N26" s="140" t="s">
+      <c r="N26" s="141" t="s">
         <v>26</v>
       </c>
       <c r="O26" s="32"/>
-      <c r="P26" s="96"/>
+      <c r="P26" s="97"/>
       <c r="Q26" s="116"/>
       <c r="R26" s="117"/>
       <c r="S26" s="117"/>
@@ -10238,7 +10426,7 @@
       <c r="BA26" s="117"/>
       <c r="BB26" s="117"/>
       <c r="BC26" s="117"/>
-      <c r="BD26" s="141"/>
+      <c r="BD26" s="142"/>
       <c r="BE26" s="31"/>
       <c r="BF26" s="31"/>
       <c r="BG26" s="31"/>
@@ -10325,11 +10513,11 @@
       <c r="EJ26" s="117"/>
       <c r="EK26" s="117"/>
       <c r="EL26" s="119"/>
-      <c r="EM26" s="96"/>
+      <c r="EM26" s="97"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="25">
+      <c r="B27" s="136">
         <v>19.0</v>
       </c>
       <c r="C27" s="112" t="s">
@@ -10356,7 +10544,7 @@
         <v>12</v>
       </c>
       <c r="O27" s="32"/>
-      <c r="P27" s="96"/>
+      <c r="P27" s="97"/>
       <c r="Q27" s="116"/>
       <c r="R27" s="117"/>
       <c r="S27" s="117"/>
@@ -10483,11 +10671,11 @@
       <c r="EJ27" s="117"/>
       <c r="EK27" s="117"/>
       <c r="EL27" s="119"/>
-      <c r="EM27" s="96"/>
+      <c r="EM27" s="97"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="25">
+      <c r="B28" s="136">
         <v>20.0</v>
       </c>
       <c r="C28" s="112" t="s">
@@ -10510,11 +10698,11 @@
         <v>8</v>
       </c>
       <c r="M28" s="32"/>
-      <c r="N28" s="142" t="s">
+      <c r="N28" s="143" t="s">
         <v>23</v>
       </c>
       <c r="O28" s="32"/>
-      <c r="P28" s="96"/>
+      <c r="P28" s="97"/>
       <c r="Q28" s="116"/>
       <c r="R28" s="117"/>
       <c r="S28" s="117"/>
@@ -10554,7 +10742,7 @@
       <c r="BA28" s="117"/>
       <c r="BB28" s="117"/>
       <c r="BC28" s="117"/>
-      <c r="BD28" s="143"/>
+      <c r="BD28" s="144"/>
       <c r="BE28" s="31"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
@@ -10641,11 +10829,11 @@
       <c r="EJ28" s="117"/>
       <c r="EK28" s="117"/>
       <c r="EL28" s="119"/>
-      <c r="EM28" s="96"/>
+      <c r="EM28" s="97"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="25">
+      <c r="B29" s="136">
         <v>21.0</v>
       </c>
       <c r="C29" s="124" t="s">
@@ -10672,7 +10860,7 @@
         <v>20</v>
       </c>
       <c r="O29" s="32"/>
-      <c r="P29" s="96"/>
+      <c r="P29" s="97"/>
       <c r="Q29" s="116"/>
       <c r="R29" s="117"/>
       <c r="S29" s="117"/>
@@ -10718,7 +10906,7 @@
       <c r="BG29" s="117"/>
       <c r="BH29" s="125"/>
       <c r="BI29" s="125"/>
-      <c r="BJ29" s="144"/>
+      <c r="BJ29" s="145"/>
       <c r="BK29" s="32"/>
       <c r="BL29" s="117"/>
       <c r="BM29" s="117"/>
@@ -10799,11 +10987,11 @@
       <c r="EJ29" s="117"/>
       <c r="EK29" s="117"/>
       <c r="EL29" s="119"/>
-      <c r="EM29" s="96"/>
+      <c r="EM29" s="97"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="25">
+      <c r="B30" s="136">
         <v>22.0</v>
       </c>
       <c r="C30" s="112" t="s">
@@ -10830,7 +11018,7 @@
         <v>12</v>
       </c>
       <c r="O30" s="32"/>
-      <c r="P30" s="96"/>
+      <c r="P30" s="97"/>
       <c r="Q30" s="116"/>
       <c r="R30" s="117"/>
       <c r="S30" s="117"/>
@@ -10957,15 +11145,15 @@
       <c r="EJ30" s="117"/>
       <c r="EK30" s="117"/>
       <c r="EL30" s="119"/>
-      <c r="EM30" s="96"/>
+      <c r="EM30" s="97"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="25">
+      <c r="B31" s="136">
         <v>23.0</v>
       </c>
       <c r="C31" s="124" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -10984,11 +11172,11 @@
         <v>2</v>
       </c>
       <c r="M31" s="32"/>
-      <c r="N31" s="136" t="s">
+      <c r="N31" s="137" t="s">
         <v>46</v>
       </c>
       <c r="O31" s="32"/>
-      <c r="P31" s="96"/>
+      <c r="P31" s="97"/>
       <c r="Q31" s="116"/>
       <c r="R31" s="117"/>
       <c r="S31" s="117"/>
@@ -11042,7 +11230,7 @@
       <c r="BO31" s="125"/>
       <c r="BP31" s="125"/>
       <c r="BQ31" s="125"/>
-      <c r="BR31" s="137"/>
+      <c r="BR31" s="138"/>
       <c r="BS31" s="32"/>
       <c r="BT31" s="117"/>
       <c r="BU31" s="117"/>
@@ -11115,11 +11303,11 @@
       <c r="EJ31" s="117"/>
       <c r="EK31" s="117"/>
       <c r="EL31" s="119"/>
-      <c r="EM31" s="96"/>
+      <c r="EM31" s="97"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="25">
+      <c r="B32" s="136">
         <v>24.0</v>
       </c>
       <c r="C32" s="124" t="s">
@@ -11142,11 +11330,11 @@
         <v>2</v>
       </c>
       <c r="M32" s="32"/>
-      <c r="N32" s="138" t="s">
+      <c r="N32" s="139" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="32"/>
-      <c r="P32" s="96"/>
+      <c r="P32" s="97"/>
       <c r="Q32" s="116"/>
       <c r="R32" s="117"/>
       <c r="S32" s="117"/>
@@ -11200,7 +11388,7 @@
       <c r="BO32" s="117"/>
       <c r="BP32" s="117"/>
       <c r="BQ32" s="117"/>
-      <c r="BR32" s="139"/>
+      <c r="BR32" s="140"/>
       <c r="BS32" s="32"/>
       <c r="BT32" s="117"/>
       <c r="BU32" s="117"/>
@@ -11273,11 +11461,11 @@
       <c r="EJ32" s="117"/>
       <c r="EK32" s="117"/>
       <c r="EL32" s="119"/>
-      <c r="EM32" s="96"/>
+      <c r="EM32" s="97"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="25">
+      <c r="B33" s="136">
         <v>25.0</v>
       </c>
       <c r="C33" s="124" t="s">
@@ -11304,7 +11492,7 @@
         <v>12</v>
       </c>
       <c r="O33" s="32"/>
-      <c r="P33" s="96"/>
+      <c r="P33" s="97"/>
       <c r="Q33" s="116"/>
       <c r="R33" s="117"/>
       <c r="S33" s="117"/>
@@ -11431,11 +11619,11 @@
       <c r="EJ33" s="117"/>
       <c r="EK33" s="117"/>
       <c r="EL33" s="119"/>
-      <c r="EM33" s="96"/>
+      <c r="EM33" s="97"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="104"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="132" t="s">
         <v>59</v>
       </c>
@@ -11456,7 +11644,7 @@
         <v>19</v>
       </c>
       <c r="N34" s="134"/>
-      <c r="P34" s="96"/>
+      <c r="P34" s="97"/>
       <c r="Q34" s="116"/>
       <c r="R34" s="117"/>
       <c r="S34" s="117"/>
@@ -11513,27 +11701,27 @@
       <c r="BR34" s="117"/>
       <c r="BS34" s="117"/>
       <c r="BT34" s="117"/>
-      <c r="BU34" s="145" t="s">
+      <c r="BU34" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="BV34" s="146"/>
-      <c r="BW34" s="146"/>
-      <c r="BX34" s="146"/>
-      <c r="BY34" s="146"/>
-      <c r="BZ34" s="146"/>
-      <c r="CA34" s="146"/>
-      <c r="CB34" s="146"/>
-      <c r="CC34" s="146"/>
-      <c r="CD34" s="146"/>
-      <c r="CE34" s="146"/>
-      <c r="CF34" s="146"/>
-      <c r="CG34" s="146"/>
-      <c r="CH34" s="146"/>
-      <c r="CI34" s="146"/>
-      <c r="CJ34" s="146"/>
-      <c r="CK34" s="146"/>
-      <c r="CL34" s="146"/>
-      <c r="CM34" s="147"/>
+      <c r="BV34" s="147"/>
+      <c r="BW34" s="147"/>
+      <c r="BX34" s="147"/>
+      <c r="BY34" s="147"/>
+      <c r="BZ34" s="147"/>
+      <c r="CA34" s="147"/>
+      <c r="CB34" s="147"/>
+      <c r="CC34" s="147"/>
+      <c r="CD34" s="147"/>
+      <c r="CE34" s="147"/>
+      <c r="CF34" s="147"/>
+      <c r="CG34" s="147"/>
+      <c r="CH34" s="147"/>
+      <c r="CI34" s="147"/>
+      <c r="CJ34" s="147"/>
+      <c r="CK34" s="147"/>
+      <c r="CL34" s="147"/>
+      <c r="CM34" s="148"/>
       <c r="CN34" s="117"/>
       <c r="CO34" s="119"/>
       <c r="CP34" s="117"/>
@@ -11585,11 +11773,11 @@
       <c r="EJ34" s="117"/>
       <c r="EK34" s="117"/>
       <c r="EL34" s="119"/>
-      <c r="EM34" s="96"/>
+      <c r="EM34" s="97"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="25">
+      <c r="B35" s="136">
         <v>26.0</v>
       </c>
       <c r="C35" s="112" t="s">
@@ -11616,7 +11804,7 @@
         <v>12</v>
       </c>
       <c r="O35" s="32"/>
-      <c r="P35" s="96"/>
+      <c r="P35" s="97"/>
       <c r="Q35" s="116"/>
       <c r="R35" s="117"/>
       <c r="S35" s="117"/>
@@ -11743,11 +11931,11 @@
       <c r="EJ35" s="117"/>
       <c r="EK35" s="117"/>
       <c r="EL35" s="119"/>
-      <c r="EM35" s="96"/>
+      <c r="EM35" s="97"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="25">
+      <c r="B36" s="136">
         <v>27.0</v>
       </c>
       <c r="C36" s="112" t="s">
@@ -11770,11 +11958,11 @@
         <v>2</v>
       </c>
       <c r="M36" s="32"/>
-      <c r="N36" s="136" t="s">
+      <c r="N36" s="137" t="s">
         <v>46</v>
       </c>
       <c r="O36" s="32"/>
-      <c r="P36" s="96"/>
+      <c r="P36" s="97"/>
       <c r="Q36" s="116"/>
       <c r="R36" s="117"/>
       <c r="S36" s="117"/>
@@ -11836,7 +12024,7 @@
       <c r="BW36" s="117"/>
       <c r="BX36" s="117"/>
       <c r="BY36" s="117"/>
-      <c r="BZ36" s="137"/>
+      <c r="BZ36" s="138"/>
       <c r="CA36" s="32"/>
       <c r="CB36" s="117"/>
       <c r="CC36" s="117"/>
@@ -11901,11 +12089,11 @@
       <c r="EJ36" s="117"/>
       <c r="EK36" s="117"/>
       <c r="EL36" s="119"/>
-      <c r="EM36" s="96"/>
+      <c r="EM36" s="97"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="25">
+      <c r="B37" s="136">
         <v>28.0</v>
       </c>
       <c r="C37" s="112" t="s">
@@ -11928,11 +12116,11 @@
         <v>2</v>
       </c>
       <c r="M37" s="32"/>
-      <c r="N37" s="140" t="s">
+      <c r="N37" s="141" t="s">
         <v>26</v>
       </c>
       <c r="O37" s="32"/>
-      <c r="P37" s="96"/>
+      <c r="P37" s="97"/>
       <c r="Q37" s="116"/>
       <c r="R37" s="117"/>
       <c r="S37" s="117"/>
@@ -11994,7 +12182,7 @@
       <c r="BW37" s="117"/>
       <c r="BX37" s="117"/>
       <c r="BY37" s="117"/>
-      <c r="BZ37" s="141"/>
+      <c r="BZ37" s="142"/>
       <c r="CA37" s="32"/>
       <c r="CB37" s="121"/>
       <c r="CC37" s="121"/>
@@ -12059,11 +12247,11 @@
       <c r="EJ37" s="117"/>
       <c r="EK37" s="117"/>
       <c r="EL37" s="119"/>
-      <c r="EM37" s="96"/>
+      <c r="EM37" s="97"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="25">
+      <c r="B38" s="136">
         <v>29.0</v>
       </c>
       <c r="C38" s="112" t="s">
@@ -12090,7 +12278,7 @@
         <v>33</v>
       </c>
       <c r="O38" s="32"/>
-      <c r="P38" s="96"/>
+      <c r="P38" s="97"/>
       <c r="Q38" s="116"/>
       <c r="R38" s="117"/>
       <c r="S38" s="117"/>
@@ -12217,11 +12405,11 @@
       <c r="EJ38" s="117"/>
       <c r="EK38" s="117"/>
       <c r="EL38" s="119"/>
-      <c r="EM38" s="96"/>
+      <c r="EM38" s="97"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="25">
+      <c r="B39" s="136">
         <v>30.0</v>
       </c>
       <c r="C39" s="112" t="s">
@@ -12244,11 +12432,11 @@
         <v>2</v>
       </c>
       <c r="M39" s="32"/>
-      <c r="N39" s="140" t="s">
+      <c r="N39" s="141" t="s">
         <v>26</v>
       </c>
       <c r="O39" s="32"/>
-      <c r="P39" s="96"/>
+      <c r="P39" s="97"/>
       <c r="Q39" s="116"/>
       <c r="R39" s="117"/>
       <c r="S39" s="117"/>
@@ -12317,7 +12505,7 @@
       <c r="CD39" s="125"/>
       <c r="CE39" s="117"/>
       <c r="CF39" s="117"/>
-      <c r="CG39" s="141"/>
+      <c r="CG39" s="142"/>
       <c r="CH39" s="32"/>
       <c r="CI39" s="117"/>
       <c r="CJ39" s="117"/>
@@ -12375,11 +12563,11 @@
       <c r="EJ39" s="117"/>
       <c r="EK39" s="117"/>
       <c r="EL39" s="119"/>
-      <c r="EM39" s="96"/>
+      <c r="EM39" s="97"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="25">
+      <c r="B40" s="136">
         <v>31.0</v>
       </c>
       <c r="C40" s="112" t="s">
@@ -12402,11 +12590,11 @@
         <v>2</v>
       </c>
       <c r="M40" s="32"/>
-      <c r="N40" s="136" t="s">
+      <c r="N40" s="137" t="s">
         <v>46</v>
       </c>
       <c r="O40" s="32"/>
-      <c r="P40" s="96"/>
+      <c r="P40" s="97"/>
       <c r="Q40" s="116"/>
       <c r="R40" s="117"/>
       <c r="S40" s="117"/>
@@ -12472,7 +12660,7 @@
       <c r="CA40" s="119"/>
       <c r="CB40" s="117"/>
       <c r="CC40" s="117"/>
-      <c r="CE40" s="137"/>
+      <c r="CE40" s="138"/>
       <c r="CF40" s="32"/>
       <c r="CG40" s="121"/>
       <c r="CH40" s="128"/>
@@ -12532,11 +12720,11 @@
       <c r="EJ40" s="117"/>
       <c r="EK40" s="117"/>
       <c r="EL40" s="119"/>
-      <c r="EM40" s="96"/>
+      <c r="EM40" s="97"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="25">
+      <c r="B41" s="136">
         <v>32.0</v>
       </c>
       <c r="C41" s="124" t="s">
@@ -12563,7 +12751,7 @@
         <v>20</v>
       </c>
       <c r="O41" s="32"/>
-      <c r="P41" s="96"/>
+      <c r="P41" s="97"/>
       <c r="Q41" s="116"/>
       <c r="R41" s="117"/>
       <c r="S41" s="117"/>
@@ -12632,7 +12820,7 @@
       <c r="CD41" s="117"/>
       <c r="CE41" s="117"/>
       <c r="CF41" s="117"/>
-      <c r="CG41" s="144"/>
+      <c r="CG41" s="145"/>
       <c r="CH41" s="128"/>
       <c r="CI41" s="117"/>
       <c r="CJ41" s="117"/>
@@ -12690,11 +12878,11 @@
       <c r="EJ41" s="117"/>
       <c r="EK41" s="117"/>
       <c r="EL41" s="119"/>
-      <c r="EM41" s="96"/>
+      <c r="EM41" s="97"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="25">
+      <c r="B42" s="136">
         <v>33.0</v>
       </c>
       <c r="C42" s="112" t="s">
@@ -12721,7 +12909,7 @@
         <v>12</v>
       </c>
       <c r="O42" s="32"/>
-      <c r="P42" s="96"/>
+      <c r="P42" s="97"/>
       <c r="Q42" s="116"/>
       <c r="R42" s="117"/>
       <c r="S42" s="117"/>
@@ -12848,11 +13036,11 @@
       <c r="EJ42" s="117"/>
       <c r="EK42" s="117"/>
       <c r="EL42" s="119"/>
-      <c r="EM42" s="96"/>
+      <c r="EM42" s="97"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="25">
+      <c r="B43" s="136">
         <v>34.0</v>
       </c>
       <c r="C43" s="112" t="s">
@@ -12879,7 +13067,7 @@
         <v>12</v>
       </c>
       <c r="O43" s="32"/>
-      <c r="P43" s="96"/>
+      <c r="P43" s="97"/>
       <c r="Q43" s="116"/>
       <c r="R43" s="117"/>
       <c r="S43" s="117"/>
@@ -13006,11 +13194,11 @@
       <c r="EJ43" s="117"/>
       <c r="EK43" s="117"/>
       <c r="EL43" s="119"/>
-      <c r="EM43" s="96"/>
+      <c r="EM43" s="97"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="25">
+      <c r="B44" s="136">
         <v>35.0</v>
       </c>
       <c r="C44" s="124" t="s">
@@ -13033,11 +13221,11 @@
         <v>2</v>
       </c>
       <c r="M44" s="32"/>
-      <c r="N44" s="140" t="s">
+      <c r="N44" s="141" t="s">
         <v>26</v>
       </c>
       <c r="O44" s="32"/>
-      <c r="P44" s="96"/>
+      <c r="P44" s="97"/>
       <c r="Q44" s="116"/>
       <c r="R44" s="117"/>
       <c r="S44" s="117"/>
@@ -13110,7 +13298,7 @@
       <c r="CH44" s="121"/>
       <c r="CI44" s="121"/>
       <c r="CJ44" s="121"/>
-      <c r="CK44" s="141"/>
+      <c r="CK44" s="142"/>
       <c r="CL44" s="32"/>
       <c r="CM44" s="121"/>
       <c r="CN44" s="117"/>
@@ -13164,15 +13352,15 @@
       <c r="EJ44" s="117"/>
       <c r="EK44" s="117"/>
       <c r="EL44" s="119"/>
-      <c r="EM44" s="96"/>
+      <c r="EM44" s="97"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="25">
+      <c r="B45" s="136">
         <v>36.0</v>
       </c>
       <c r="C45" s="124" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
@@ -13191,11 +13379,11 @@
         <v>4</v>
       </c>
       <c r="M45" s="32"/>
-      <c r="N45" s="136" t="s">
+      <c r="N45" s="137" t="s">
         <v>46</v>
       </c>
       <c r="O45" s="32"/>
-      <c r="P45" s="96"/>
+      <c r="P45" s="97"/>
       <c r="Q45" s="116"/>
       <c r="R45" s="117"/>
       <c r="S45" s="117"/>
@@ -13266,7 +13454,7 @@
       <c r="CF45" s="117"/>
       <c r="CG45" s="117"/>
       <c r="CH45" s="119"/>
-      <c r="CI45" s="137"/>
+      <c r="CI45" s="138"/>
       <c r="CJ45" s="31"/>
       <c r="CK45" s="31"/>
       <c r="CL45" s="32"/>
@@ -13322,15 +13510,15 @@
       <c r="EJ45" s="117"/>
       <c r="EK45" s="117"/>
       <c r="EL45" s="119"/>
-      <c r="EM45" s="96"/>
+      <c r="EM45" s="97"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="25">
+      <c r="B46" s="136">
         <v>37.0</v>
       </c>
       <c r="C46" s="124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
@@ -13349,11 +13537,11 @@
         <v>2</v>
       </c>
       <c r="M46" s="32"/>
-      <c r="N46" s="138" t="s">
+      <c r="N46" s="139" t="s">
         <v>48</v>
       </c>
       <c r="O46" s="32"/>
-      <c r="P46" s="96"/>
+      <c r="P46" s="97"/>
       <c r="Q46" s="116"/>
       <c r="R46" s="117"/>
       <c r="S46" s="117"/>
@@ -13424,7 +13612,7 @@
       <c r="CF46" s="117"/>
       <c r="CG46" s="117"/>
       <c r="CH46" s="119"/>
-      <c r="CI46" s="148"/>
+      <c r="CI46" s="149"/>
       <c r="CJ46" s="52"/>
       <c r="CK46" s="125"/>
       <c r="CL46" s="125"/>
@@ -13480,15 +13668,15 @@
       <c r="EJ46" s="117"/>
       <c r="EK46" s="117"/>
       <c r="EL46" s="119"/>
-      <c r="EM46" s="96"/>
+      <c r="EM46" s="97"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="25">
+      <c r="B47" s="136">
         <v>38.0</v>
       </c>
       <c r="C47" s="124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
@@ -13511,7 +13699,7 @@
         <v>12</v>
       </c>
       <c r="O47" s="32"/>
-      <c r="P47" s="96"/>
+      <c r="P47" s="97"/>
       <c r="Q47" s="116"/>
       <c r="R47" s="117"/>
       <c r="S47" s="117"/>
@@ -13587,35 +13775,35 @@
       <c r="CL47" s="125"/>
       <c r="CM47" s="120"/>
       <c r="CN47" s="121"/>
-      <c r="CO47" s="149"/>
+      <c r="CO47" s="150"/>
       <c r="CP47" s="121"/>
       <c r="CQ47" s="121"/>
       <c r="CR47" s="121"/>
       <c r="CS47" s="121"/>
       <c r="CT47" s="121"/>
       <c r="CU47" s="121"/>
-      <c r="CV47" s="149"/>
+      <c r="CV47" s="150"/>
       <c r="CW47" s="121"/>
       <c r="CX47" s="121"/>
       <c r="CY47" s="121"/>
       <c r="CZ47" s="121"/>
       <c r="DA47" s="121"/>
       <c r="DB47" s="121"/>
-      <c r="DC47" s="149"/>
+      <c r="DC47" s="150"/>
       <c r="DD47" s="121"/>
       <c r="DE47" s="121"/>
       <c r="DF47" s="121"/>
       <c r="DG47" s="121"/>
       <c r="DH47" s="121"/>
       <c r="DI47" s="121"/>
-      <c r="DJ47" s="149"/>
+      <c r="DJ47" s="150"/>
       <c r="DK47" s="121"/>
       <c r="DL47" s="121"/>
       <c r="DM47" s="121"/>
       <c r="DN47" s="121"/>
       <c r="DO47" s="121"/>
       <c r="DP47" s="121"/>
-      <c r="DQ47" s="149"/>
+      <c r="DQ47" s="150"/>
       <c r="DR47" s="117"/>
       <c r="DS47" s="117"/>
       <c r="DT47" s="117"/>
@@ -13637,13 +13825,13 @@
       <c r="EJ47" s="117"/>
       <c r="EK47" s="117"/>
       <c r="EL47" s="119"/>
-      <c r="EM47" s="96"/>
+      <c r="EM47" s="97"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="104"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="132" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
@@ -13661,8 +13849,8 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N48" s="150"/>
-      <c r="P48" s="96"/>
+      <c r="N48" s="151"/>
+      <c r="P48" s="97"/>
       <c r="Q48" s="116"/>
       <c r="R48" s="117"/>
       <c r="S48" s="117"/>
@@ -13738,8 +13926,8 @@
       <c r="CK48" s="117"/>
       <c r="CL48" s="125"/>
       <c r="CM48" s="125"/>
-      <c r="CN48" s="151" t="s">
-        <v>81</v>
+      <c r="CN48" s="152" t="s">
+        <v>79</v>
       </c>
       <c r="CO48" s="31"/>
       <c r="CP48" s="31"/>
@@ -13770,8 +13958,8 @@
       <c r="DO48" s="31"/>
       <c r="DP48" s="31"/>
       <c r="DQ48" s="31"/>
-      <c r="DR48" s="31"/>
-      <c r="DS48" s="32"/>
+      <c r="DR48" s="117"/>
+      <c r="DS48" s="117"/>
       <c r="DT48" s="117"/>
       <c r="DU48" s="117"/>
       <c r="DV48" s="117"/>
@@ -13791,32 +13979,38 @@
       <c r="EJ48" s="117"/>
       <c r="EK48" s="117"/>
       <c r="EL48" s="119"/>
-      <c r="EM48" s="96"/>
+      <c r="EM48" s="97"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="25">
+      <c r="B49" s="136">
         <v>39.0</v>
       </c>
-      <c r="C49" s="112" t="s">
-        <v>82</v>
+      <c r="C49" s="124" t="s">
+        <v>80</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
       <c r="G49" s="32"/>
-      <c r="H49" s="152"/>
+      <c r="H49" s="113">
+        <v>45592.0</v>
+      </c>
       <c r="I49" s="32"/>
-      <c r="J49" s="152"/>
+      <c r="J49" s="113">
+        <v>45593.0</v>
+      </c>
       <c r="K49" s="32"/>
       <c r="L49" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="32"/>
-      <c r="N49" s="152"/>
+      <c r="N49" s="115" t="s">
+        <v>12</v>
+      </c>
       <c r="O49" s="32"/>
-      <c r="P49" s="96"/>
+      <c r="P49" s="97"/>
       <c r="Q49" s="116"/>
       <c r="R49" s="117"/>
       <c r="S49" s="117"/>
@@ -13893,7 +14087,7 @@
       <c r="CL49" s="125"/>
       <c r="CM49" s="125"/>
       <c r="CN49" s="125"/>
-      <c r="CO49" s="128"/>
+      <c r="CO49" s="120"/>
       <c r="CP49" s="125"/>
       <c r="CQ49" s="125"/>
       <c r="CR49" s="125"/>
@@ -13922,8 +14116,8 @@
       <c r="DO49" s="125"/>
       <c r="DP49" s="125"/>
       <c r="DQ49" s="128"/>
-      <c r="DR49" s="117"/>
-      <c r="DS49" s="117"/>
+      <c r="DR49" s="153"/>
+      <c r="DS49" s="153"/>
       <c r="DT49" s="117"/>
       <c r="DU49" s="117"/>
       <c r="DV49" s="117"/>
@@ -13943,32 +14137,38 @@
       <c r="EJ49" s="117"/>
       <c r="EK49" s="117"/>
       <c r="EL49" s="119"/>
-      <c r="EM49" s="96"/>
+      <c r="EM49" s="97"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="25">
+      <c r="B50" s="136">
         <v>40.0</v>
       </c>
       <c r="C50" s="112" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
       <c r="G50" s="32"/>
-      <c r="H50" s="152"/>
+      <c r="H50" s="113">
+        <v>45592.0</v>
+      </c>
       <c r="I50" s="32"/>
-      <c r="J50" s="152"/>
+      <c r="J50" s="113">
+        <v>45596.0</v>
+      </c>
       <c r="K50" s="32"/>
       <c r="L50" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M50" s="32"/>
-      <c r="N50" s="152"/>
+      <c r="N50" s="129" t="s">
+        <v>33</v>
+      </c>
       <c r="O50" s="32"/>
-      <c r="P50" s="96"/>
+      <c r="P50" s="97"/>
       <c r="Q50" s="116"/>
       <c r="R50" s="117"/>
       <c r="S50" s="117"/>
@@ -14042,38 +14242,38 @@
       <c r="CI50" s="117"/>
       <c r="CJ50" s="117"/>
       <c r="CK50" s="117"/>
-      <c r="CL50" s="117"/>
-      <c r="CM50" s="117"/>
-      <c r="CN50" s="117"/>
-      <c r="CO50" s="119"/>
-      <c r="CP50" s="117"/>
-      <c r="CQ50" s="117"/>
-      <c r="CR50" s="117"/>
-      <c r="CS50" s="117"/>
-      <c r="CT50" s="117"/>
-      <c r="CU50" s="117"/>
-      <c r="CV50" s="119"/>
-      <c r="CW50" s="117"/>
-      <c r="CX50" s="117"/>
-      <c r="CY50" s="117"/>
-      <c r="CZ50" s="117"/>
-      <c r="DA50" s="117"/>
-      <c r="DB50" s="117"/>
-      <c r="DC50" s="119"/>
-      <c r="DD50" s="117"/>
-      <c r="DE50" s="117"/>
-      <c r="DF50" s="117"/>
-      <c r="DG50" s="117"/>
-      <c r="DH50" s="117"/>
-      <c r="DI50" s="117"/>
-      <c r="DJ50" s="119"/>
-      <c r="DK50" s="117"/>
-      <c r="DL50" s="117"/>
-      <c r="DM50" s="117"/>
-      <c r="DN50" s="117"/>
-      <c r="DO50" s="117"/>
-      <c r="DP50" s="117"/>
-      <c r="DQ50" s="119"/>
+      <c r="CL50" s="125"/>
+      <c r="CM50" s="125"/>
+      <c r="CN50" s="125"/>
+      <c r="CO50" s="154"/>
+      <c r="CP50" s="56"/>
+      <c r="CQ50" s="56"/>
+      <c r="CR50" s="57"/>
+      <c r="CS50" s="125"/>
+      <c r="CT50" s="125"/>
+      <c r="CU50" s="125"/>
+      <c r="CV50" s="128"/>
+      <c r="CW50" s="125"/>
+      <c r="CX50" s="125"/>
+      <c r="CY50" s="125"/>
+      <c r="CZ50" s="125"/>
+      <c r="DA50" s="125"/>
+      <c r="DB50" s="125"/>
+      <c r="DC50" s="128"/>
+      <c r="DD50" s="125"/>
+      <c r="DE50" s="125"/>
+      <c r="DF50" s="125"/>
+      <c r="DG50" s="125"/>
+      <c r="DH50" s="125"/>
+      <c r="DI50" s="125"/>
+      <c r="DJ50" s="128"/>
+      <c r="DK50" s="125"/>
+      <c r="DL50" s="125"/>
+      <c r="DM50" s="125"/>
+      <c r="DN50" s="125"/>
+      <c r="DO50" s="125"/>
+      <c r="DP50" s="125"/>
+      <c r="DQ50" s="128"/>
       <c r="DR50" s="117"/>
       <c r="DS50" s="117"/>
       <c r="DT50" s="117"/>
@@ -14095,32 +14295,38 @@
       <c r="EJ50" s="117"/>
       <c r="EK50" s="117"/>
       <c r="EL50" s="119"/>
-      <c r="EM50" s="96"/>
+      <c r="EM50" s="97"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="25">
+      <c r="B51" s="136">
         <v>41.0</v>
       </c>
-      <c r="C51" s="112" t="s">
-        <v>85</v>
+      <c r="C51" s="155" t="s">
+        <v>82</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="32"/>
-      <c r="H51" s="152"/>
+      <c r="H51" s="113">
+        <v>45592.0</v>
+      </c>
       <c r="I51" s="32"/>
-      <c r="J51" s="152"/>
+      <c r="J51" s="113">
+        <v>45596.0</v>
+      </c>
       <c r="K51" s="32"/>
-      <c r="L51" s="114">
+      <c r="L51" s="156">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M51" s="32"/>
-      <c r="N51" s="152"/>
+      <c r="N51" s="122" t="s">
+        <v>20</v>
+      </c>
       <c r="O51" s="32"/>
-      <c r="P51" s="96"/>
+      <c r="P51" s="97"/>
       <c r="Q51" s="116"/>
       <c r="R51" s="117"/>
       <c r="S51" s="117"/>
@@ -14194,38 +14400,38 @@
       <c r="CI51" s="117"/>
       <c r="CJ51" s="117"/>
       <c r="CK51" s="117"/>
-      <c r="CL51" s="117"/>
-      <c r="CM51" s="117"/>
-      <c r="CN51" s="117"/>
-      <c r="CO51" s="119"/>
-      <c r="CP51" s="117"/>
-      <c r="CQ51" s="117"/>
-      <c r="CR51" s="117"/>
-      <c r="CS51" s="117"/>
-      <c r="CT51" s="117"/>
-      <c r="CU51" s="117"/>
-      <c r="CV51" s="119"/>
-      <c r="CW51" s="117"/>
-      <c r="CX51" s="117"/>
-      <c r="CY51" s="117"/>
-      <c r="CZ51" s="117"/>
-      <c r="DA51" s="117"/>
-      <c r="DB51" s="117"/>
-      <c r="DC51" s="119"/>
-      <c r="DD51" s="117"/>
-      <c r="DE51" s="117"/>
-      <c r="DF51" s="117"/>
-      <c r="DG51" s="117"/>
-      <c r="DH51" s="117"/>
-      <c r="DI51" s="117"/>
-      <c r="DJ51" s="119"/>
-      <c r="DK51" s="117"/>
-      <c r="DL51" s="117"/>
-      <c r="DM51" s="117"/>
-      <c r="DN51" s="117"/>
-      <c r="DO51" s="117"/>
-      <c r="DP51" s="117"/>
-      <c r="DQ51" s="119"/>
+      <c r="CL51" s="125"/>
+      <c r="CM51" s="125"/>
+      <c r="CN51" s="128"/>
+      <c r="CO51" s="127"/>
+      <c r="CP51" s="31"/>
+      <c r="CQ51" s="31"/>
+      <c r="CR51" s="32"/>
+      <c r="CS51" s="157"/>
+      <c r="CT51" s="125"/>
+      <c r="CU51" s="125"/>
+      <c r="CV51" s="128"/>
+      <c r="CW51" s="125"/>
+      <c r="CX51" s="125"/>
+      <c r="CY51" s="125"/>
+      <c r="CZ51" s="125"/>
+      <c r="DA51" s="125"/>
+      <c r="DB51" s="125"/>
+      <c r="DC51" s="128"/>
+      <c r="DD51" s="125"/>
+      <c r="DE51" s="125"/>
+      <c r="DF51" s="125"/>
+      <c r="DG51" s="125"/>
+      <c r="DH51" s="125"/>
+      <c r="DI51" s="125"/>
+      <c r="DJ51" s="128"/>
+      <c r="DK51" s="125"/>
+      <c r="DL51" s="125"/>
+      <c r="DM51" s="125"/>
+      <c r="DN51" s="125"/>
+      <c r="DO51" s="125"/>
+      <c r="DP51" s="125"/>
+      <c r="DQ51" s="128"/>
       <c r="DR51" s="117"/>
       <c r="DS51" s="117"/>
       <c r="DT51" s="117"/>
@@ -14247,32 +14453,38 @@
       <c r="EJ51" s="117"/>
       <c r="EK51" s="117"/>
       <c r="EL51" s="119"/>
-      <c r="EM51" s="96"/>
+      <c r="EM51" s="97"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="25">
+      <c r="B52" s="136">
         <v>42.0</v>
       </c>
       <c r="C52" s="112" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="152"/>
+      <c r="H52" s="113">
+        <v>45596.0</v>
+      </c>
       <c r="I52" s="32"/>
-      <c r="J52" s="152"/>
+      <c r="J52" s="113">
+        <v>45603.0</v>
+      </c>
       <c r="K52" s="32"/>
       <c r="L52" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M52" s="32"/>
-      <c r="N52" s="152"/>
+      <c r="N52" s="115" t="s">
+        <v>12</v>
+      </c>
       <c r="O52" s="32"/>
-      <c r="P52" s="96"/>
+      <c r="P52" s="97"/>
       <c r="Q52" s="116"/>
       <c r="R52" s="117"/>
       <c r="S52" s="117"/>
@@ -14349,17 +14561,17 @@
       <c r="CL52" s="117"/>
       <c r="CM52" s="117"/>
       <c r="CN52" s="117"/>
-      <c r="CO52" s="119"/>
-      <c r="CP52" s="117"/>
-      <c r="CQ52" s="117"/>
-      <c r="CR52" s="117"/>
-      <c r="CS52" s="117"/>
-      <c r="CT52" s="117"/>
-      <c r="CU52" s="117"/>
-      <c r="CV52" s="119"/>
-      <c r="CW52" s="117"/>
-      <c r="CX52" s="117"/>
-      <c r="CY52" s="117"/>
+      <c r="CO52" s="128"/>
+      <c r="CP52" s="125"/>
+      <c r="CQ52" s="125"/>
+      <c r="CR52" s="125"/>
+      <c r="CS52" s="118"/>
+      <c r="CT52" s="31"/>
+      <c r="CU52" s="31"/>
+      <c r="CV52" s="31"/>
+      <c r="CW52" s="31"/>
+      <c r="CX52" s="31"/>
+      <c r="CY52" s="32"/>
       <c r="CZ52" s="117"/>
       <c r="DA52" s="117"/>
       <c r="DB52" s="117"/>
@@ -14399,32 +14611,38 @@
       <c r="EJ52" s="117"/>
       <c r="EK52" s="117"/>
       <c r="EL52" s="119"/>
-      <c r="EM52" s="96"/>
+      <c r="EM52" s="97"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="25">
+      <c r="B53" s="136">
         <v>43.0</v>
       </c>
       <c r="C53" s="124" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
       <c r="G53" s="32"/>
-      <c r="H53" s="152"/>
+      <c r="H53" s="113">
+        <v>45603.0</v>
+      </c>
       <c r="I53" s="32"/>
-      <c r="J53" s="152"/>
+      <c r="J53" s="113">
+        <v>45608.0</v>
+      </c>
       <c r="K53" s="32"/>
       <c r="L53" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M53" s="32"/>
-      <c r="N53" s="152"/>
+      <c r="N53" s="137" t="s">
+        <v>46</v>
+      </c>
       <c r="O53" s="32"/>
-      <c r="P53" s="96"/>
+      <c r="P53" s="97"/>
       <c r="Q53" s="116"/>
       <c r="R53" s="117"/>
       <c r="S53" s="117"/>
@@ -14512,16 +14730,16 @@
       <c r="CW53" s="117"/>
       <c r="CX53" s="117"/>
       <c r="CY53" s="117"/>
-      <c r="CZ53" s="117"/>
-      <c r="DA53" s="117"/>
-      <c r="DB53" s="117"/>
-      <c r="DC53" s="119"/>
-      <c r="DD53" s="117"/>
-      <c r="DE53" s="117"/>
-      <c r="DF53" s="117"/>
-      <c r="DG53" s="117"/>
-      <c r="DH53" s="117"/>
-      <c r="DI53" s="117"/>
+      <c r="CZ53" s="158"/>
+      <c r="DA53" s="147"/>
+      <c r="DB53" s="147"/>
+      <c r="DC53" s="147"/>
+      <c r="DD53" s="148"/>
+      <c r="DE53" s="159"/>
+      <c r="DF53" s="159"/>
+      <c r="DG53" s="125"/>
+      <c r="DH53" s="125"/>
+      <c r="DI53" s="159"/>
       <c r="DJ53" s="119"/>
       <c r="DK53" s="117"/>
       <c r="DL53" s="117"/>
@@ -14551,32 +14769,38 @@
       <c r="EJ53" s="117"/>
       <c r="EK53" s="117"/>
       <c r="EL53" s="119"/>
-      <c r="EM53" s="96"/>
+      <c r="EM53" s="97"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="25">
+      <c r="B54" s="136">
         <v>44.0</v>
       </c>
-      <c r="C54" s="112" t="s">
-        <v>119</v>
+      <c r="C54" s="124" t="s">
+        <v>89</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
-      <c r="H54" s="152"/>
+      <c r="H54" s="113">
+        <v>45603.0</v>
+      </c>
       <c r="I54" s="32"/>
-      <c r="J54" s="152"/>
+      <c r="J54" s="113">
+        <v>45608.0</v>
+      </c>
       <c r="K54" s="32"/>
       <c r="L54" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M54" s="32"/>
-      <c r="N54" s="152"/>
+      <c r="N54" s="141" t="s">
+        <v>26</v>
+      </c>
       <c r="O54" s="32"/>
-      <c r="P54" s="96"/>
+      <c r="P54" s="97"/>
       <c r="Q54" s="116"/>
       <c r="R54" s="117"/>
       <c r="S54" s="117"/>
@@ -14664,18 +14888,18 @@
       <c r="CW54" s="117"/>
       <c r="CX54" s="117"/>
       <c r="CY54" s="117"/>
-      <c r="CZ54" s="117"/>
-      <c r="DA54" s="117"/>
-      <c r="DB54" s="117"/>
-      <c r="DC54" s="119"/>
-      <c r="DD54" s="117"/>
-      <c r="DE54" s="117"/>
-      <c r="DF54" s="117"/>
+      <c r="CZ54" s="160"/>
+      <c r="DA54" s="147"/>
+      <c r="DB54" s="147"/>
+      <c r="DC54" s="147"/>
+      <c r="DD54" s="148"/>
+      <c r="DE54" s="161"/>
+      <c r="DF54" s="161"/>
       <c r="DG54" s="117"/>
       <c r="DH54" s="117"/>
-      <c r="DI54" s="117"/>
-      <c r="DJ54" s="119"/>
-      <c r="DK54" s="117"/>
+      <c r="DI54" s="162"/>
+      <c r="DJ54" s="159"/>
+      <c r="DK54" s="159"/>
       <c r="DL54" s="117"/>
       <c r="DM54" s="117"/>
       <c r="DN54" s="117"/>
@@ -14703,32 +14927,38 @@
       <c r="EJ54" s="117"/>
       <c r="EK54" s="117"/>
       <c r="EL54" s="119"/>
-      <c r="EM54" s="96"/>
+      <c r="EM54" s="97"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
-      <c r="B55" s="25">
+      <c r="B55" s="136">
         <v>45.0</v>
       </c>
-      <c r="C55" s="112" t="s">
-        <v>93</v>
+      <c r="C55" s="124" t="s">
+        <v>119</v>
       </c>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
       <c r="G55" s="32"/>
-      <c r="H55" s="152"/>
+      <c r="H55" s="113">
+        <v>45608.0</v>
+      </c>
       <c r="I55" s="32"/>
-      <c r="J55" s="152"/>
+      <c r="J55" s="113">
+        <v>45610.0</v>
+      </c>
       <c r="K55" s="32"/>
       <c r="L55" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55" s="32"/>
-      <c r="N55" s="152"/>
+      <c r="N55" s="143" t="s">
+        <v>23</v>
+      </c>
       <c r="O55" s="32"/>
-      <c r="P55" s="96"/>
+      <c r="P55" s="97"/>
       <c r="Q55" s="116"/>
       <c r="R55" s="117"/>
       <c r="S55" s="117"/>
@@ -14820,20 +15050,20 @@
       <c r="DA55" s="117"/>
       <c r="DB55" s="117"/>
       <c r="DC55" s="119"/>
-      <c r="DD55" s="117"/>
-      <c r="DE55" s="117"/>
-      <c r="DF55" s="117"/>
-      <c r="DG55" s="117"/>
-      <c r="DH55" s="117"/>
-      <c r="DI55" s="117"/>
-      <c r="DJ55" s="119"/>
-      <c r="DK55" s="117"/>
-      <c r="DL55" s="117"/>
-      <c r="DM55" s="117"/>
-      <c r="DN55" s="117"/>
-      <c r="DO55" s="117"/>
-      <c r="DP55" s="117"/>
-      <c r="DQ55" s="119"/>
+      <c r="DD55" s="119"/>
+      <c r="DE55" s="144"/>
+      <c r="DF55" s="31"/>
+      <c r="DG55" s="125"/>
+      <c r="DH55" s="125"/>
+      <c r="DI55" s="125"/>
+      <c r="DJ55" s="162"/>
+      <c r="DK55" s="162"/>
+      <c r="DL55" s="159"/>
+      <c r="DM55" s="159"/>
+      <c r="DN55" s="121"/>
+      <c r="DO55" s="121"/>
+      <c r="DP55" s="121"/>
+      <c r="DQ55" s="150"/>
       <c r="DR55" s="117"/>
       <c r="DS55" s="117"/>
       <c r="DT55" s="117"/>
@@ -14855,32 +15085,38 @@
       <c r="EJ55" s="117"/>
       <c r="EK55" s="117"/>
       <c r="EL55" s="119"/>
-      <c r="EM55" s="96"/>
+      <c r="EM55" s="97"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="25">
+      <c r="B56" s="136">
         <v>46.0</v>
       </c>
-      <c r="C56" s="112" t="s">
-        <v>94</v>
+      <c r="C56" s="124" t="s">
+        <v>91</v>
       </c>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="32"/>
-      <c r="H56" s="152"/>
+      <c r="H56" s="113">
+        <v>45608.0</v>
+      </c>
       <c r="I56" s="32"/>
-      <c r="J56" s="152"/>
+      <c r="J56" s="113">
+        <v>45610.0</v>
+      </c>
       <c r="K56" s="32"/>
       <c r="L56" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M56" s="32"/>
-      <c r="N56" s="152"/>
+      <c r="N56" s="141" t="s">
+        <v>26</v>
+      </c>
       <c r="O56" s="32"/>
-      <c r="P56" s="96"/>
+      <c r="P56" s="97"/>
       <c r="Q56" s="116"/>
       <c r="R56" s="117"/>
       <c r="S56" s="117"/>
@@ -14973,15 +15209,15 @@
       <c r="DB56" s="117"/>
       <c r="DC56" s="119"/>
       <c r="DD56" s="117"/>
-      <c r="DE56" s="117"/>
-      <c r="DF56" s="117"/>
+      <c r="DE56" s="142"/>
+      <c r="DF56" s="31"/>
       <c r="DG56" s="117"/>
       <c r="DH56" s="117"/>
       <c r="DI56" s="117"/>
-      <c r="DJ56" s="119"/>
-      <c r="DK56" s="117"/>
-      <c r="DL56" s="117"/>
-      <c r="DM56" s="117"/>
+      <c r="DJ56" s="159"/>
+      <c r="DK56" s="159"/>
+      <c r="DL56" s="162"/>
+      <c r="DM56" s="162"/>
       <c r="DN56" s="117"/>
       <c r="DO56" s="117"/>
       <c r="DP56" s="117"/>
@@ -15007,32 +15243,38 @@
       <c r="EJ56" s="117"/>
       <c r="EK56" s="117"/>
       <c r="EL56" s="119"/>
-      <c r="EM56" s="96"/>
+      <c r="EM56" s="97"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
-      <c r="B57" s="25">
+      <c r="B57" s="136">
         <v>47.0</v>
       </c>
-      <c r="C57" s="112" t="s">
-        <v>95</v>
+      <c r="C57" s="124" t="s">
+        <v>92</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
       <c r="G57" s="32"/>
-      <c r="H57" s="152"/>
+      <c r="H57" s="113">
+        <v>45608.0</v>
+      </c>
       <c r="I57" s="32"/>
-      <c r="J57" s="152"/>
+      <c r="J57" s="113">
+        <v>45610.0</v>
+      </c>
       <c r="K57" s="32"/>
       <c r="L57" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" s="32"/>
-      <c r="N57" s="152"/>
+      <c r="N57" s="122" t="s">
+        <v>20</v>
+      </c>
       <c r="O57" s="32"/>
-      <c r="P57" s="96"/>
+      <c r="P57" s="97"/>
       <c r="Q57" s="116"/>
       <c r="R57" s="117"/>
       <c r="S57" s="117"/>
@@ -15125,19 +15367,19 @@
       <c r="DB57" s="117"/>
       <c r="DC57" s="119"/>
       <c r="DD57" s="117"/>
-      <c r="DE57" s="117"/>
-      <c r="DF57" s="117"/>
+      <c r="DE57" s="127"/>
+      <c r="DF57" s="31"/>
       <c r="DG57" s="117"/>
       <c r="DH57" s="117"/>
       <c r="DI57" s="117"/>
-      <c r="DJ57" s="119"/>
-      <c r="DK57" s="117"/>
-      <c r="DL57" s="117"/>
-      <c r="DM57" s="117"/>
-      <c r="DN57" s="117"/>
-      <c r="DO57" s="117"/>
-      <c r="DP57" s="117"/>
-      <c r="DQ57" s="119"/>
+      <c r="DJ57" s="162"/>
+      <c r="DK57" s="162"/>
+      <c r="DL57" s="162"/>
+      <c r="DM57" s="162"/>
+      <c r="DN57" s="125"/>
+      <c r="DO57" s="125"/>
+      <c r="DP57" s="125"/>
+      <c r="DQ57" s="128"/>
       <c r="DR57" s="117"/>
       <c r="DS57" s="117"/>
       <c r="DT57" s="117"/>
@@ -15159,32 +15401,38 @@
       <c r="EJ57" s="117"/>
       <c r="EK57" s="117"/>
       <c r="EL57" s="119"/>
-      <c r="EM57" s="96"/>
+      <c r="EM57" s="97"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
-      <c r="B58" s="25">
+      <c r="B58" s="136">
         <v>48.0</v>
       </c>
-      <c r="C58" s="112" t="s">
-        <v>120</v>
+      <c r="C58" s="124" t="s">
+        <v>94</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
       <c r="G58" s="32"/>
-      <c r="H58" s="152"/>
+      <c r="H58" s="113">
+        <v>45610.0</v>
+      </c>
       <c r="I58" s="32"/>
-      <c r="J58" s="152"/>
+      <c r="J58" s="113">
+        <v>45612.0</v>
+      </c>
       <c r="K58" s="32"/>
       <c r="L58" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M58" s="32"/>
-      <c r="N58" s="152"/>
+      <c r="N58" s="115" t="s">
+        <v>12</v>
+      </c>
       <c r="O58" s="32"/>
-      <c r="P58" s="96"/>
+      <c r="P58" s="97"/>
       <c r="Q58" s="116"/>
       <c r="R58" s="117"/>
       <c r="S58" s="117"/>
@@ -15277,18 +15525,18 @@
       <c r="DB58" s="117"/>
       <c r="DC58" s="119"/>
       <c r="DD58" s="117"/>
-      <c r="DE58" s="117"/>
-      <c r="DF58" s="117"/>
-      <c r="DG58" s="117"/>
-      <c r="DH58" s="117"/>
+      <c r="DE58" s="125"/>
+      <c r="DF58" s="125"/>
+      <c r="DG58" s="118"/>
+      <c r="DH58" s="32"/>
       <c r="DI58" s="117"/>
-      <c r="DJ58" s="119"/>
-      <c r="DK58" s="117"/>
-      <c r="DL58" s="117"/>
-      <c r="DM58" s="117"/>
-      <c r="DN58" s="117"/>
-      <c r="DO58" s="117"/>
-      <c r="DP58" s="117"/>
+      <c r="DJ58" s="162"/>
+      <c r="DK58" s="162"/>
+      <c r="DL58" s="162"/>
+      <c r="DM58" s="162"/>
+      <c r="DN58" s="121"/>
+      <c r="DO58" s="121"/>
+      <c r="DP58" s="121"/>
       <c r="DQ58" s="119"/>
       <c r="DR58" s="117"/>
       <c r="DS58" s="117"/>
@@ -15311,33 +15559,38 @@
       <c r="EJ58" s="117"/>
       <c r="EK58" s="117"/>
       <c r="EL58" s="119"/>
-      <c r="EM58" s="96"/>
+      <c r="EM58" s="97"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="30" t="s">
-        <v>99</v>
+      <c r="B59" s="136">
+        <v>49.0</v>
+      </c>
+      <c r="C59" s="124" t="s">
+        <v>96</v>
       </c>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
       <c r="F59" s="31"/>
       <c r="G59" s="32"/>
-      <c r="H59" s="105">
-        <v>45621.0</v>
+      <c r="H59" s="113">
+        <v>45612.0</v>
       </c>
       <c r="I59" s="32"/>
-      <c r="J59" s="106">
-        <v>45642.0</v>
+      <c r="J59" s="113">
+        <v>45620.0</v>
       </c>
       <c r="K59" s="32"/>
-      <c r="L59" s="99">
+      <c r="L59" s="114">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M59" s="32"/>
-      <c r="N59" s="153"/>
-      <c r="P59" s="96"/>
+      <c r="N59" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="O59" s="32"/>
+      <c r="P59" s="97"/>
       <c r="Q59" s="116"/>
       <c r="R59" s="117"/>
       <c r="S59" s="117"/>
@@ -15434,64 +15687,68 @@
       <c r="DF59" s="117"/>
       <c r="DG59" s="117"/>
       <c r="DH59" s="117"/>
-      <c r="DI59" s="117"/>
-      <c r="DJ59" s="119"/>
-      <c r="DK59" s="117"/>
-      <c r="DL59" s="117"/>
-      <c r="DM59" s="117"/>
-      <c r="DN59" s="117"/>
-      <c r="DO59" s="117"/>
-      <c r="DP59" s="117"/>
+      <c r="DI59" s="118"/>
+      <c r="DJ59" s="31"/>
+      <c r="DK59" s="31"/>
+      <c r="DL59" s="31"/>
+      <c r="DM59" s="31"/>
+      <c r="DN59" s="31"/>
+      <c r="DO59" s="31"/>
+      <c r="DP59" s="32"/>
       <c r="DQ59" s="119"/>
-      <c r="DR59" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="DS59" s="31"/>
-      <c r="DT59" s="31"/>
-      <c r="DU59" s="31"/>
-      <c r="DV59" s="31"/>
-      <c r="DW59" s="31"/>
-      <c r="DX59" s="31"/>
-      <c r="DY59" s="31"/>
-      <c r="DZ59" s="31"/>
-      <c r="EA59" s="31"/>
-      <c r="EB59" s="31"/>
-      <c r="EC59" s="31"/>
-      <c r="ED59" s="31"/>
-      <c r="EE59" s="31"/>
-      <c r="EF59" s="31"/>
-      <c r="EG59" s="31"/>
-      <c r="EH59" s="31"/>
-      <c r="EI59" s="31"/>
-      <c r="EJ59" s="31"/>
-      <c r="EK59" s="31"/>
-      <c r="EL59" s="32"/>
-      <c r="EM59" s="96"/>
+      <c r="DR59" s="117"/>
+      <c r="DS59" s="117"/>
+      <c r="DT59" s="117"/>
+      <c r="DU59" s="117"/>
+      <c r="DV59" s="117"/>
+      <c r="DW59" s="117"/>
+      <c r="DX59" s="119"/>
+      <c r="DY59" s="117"/>
+      <c r="DZ59" s="117"/>
+      <c r="EA59" s="117"/>
+      <c r="EB59" s="117"/>
+      <c r="EC59" s="117"/>
+      <c r="ED59" s="117"/>
+      <c r="EE59" s="119"/>
+      <c r="EF59" s="117"/>
+      <c r="EG59" s="117"/>
+      <c r="EH59" s="117"/>
+      <c r="EI59" s="117"/>
+      <c r="EJ59" s="117"/>
+      <c r="EK59" s="117"/>
+      <c r="EL59" s="119"/>
+      <c r="EM59" s="97"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="132" t="s">
+      <c r="B60" s="136">
+        <v>50.0</v>
+      </c>
+      <c r="C60" s="124" t="s">
         <v>98</v>
       </c>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31"/>
       <c r="G60" s="32"/>
-      <c r="H60" s="154">
+      <c r="H60" s="113">
+        <v>45620.0</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="113">
         <v>45621.0</v>
       </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="133">
-        <v>45642.0</v>
-      </c>
       <c r="K60" s="32"/>
-      <c r="L60" s="134">
+      <c r="L60" s="114">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="N60" s="150"/>
-      <c r="P60" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="M60" s="32"/>
+      <c r="N60" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60" s="32"/>
+      <c r="P60" s="97"/>
       <c r="Q60" s="116"/>
       <c r="R60" s="117"/>
       <c r="S60" s="117"/>
@@ -15593,59 +15850,59 @@
       <c r="DK60" s="117"/>
       <c r="DL60" s="117"/>
       <c r="DM60" s="117"/>
-      <c r="DN60" s="117"/>
-      <c r="DO60" s="117"/>
-      <c r="DP60" s="117"/>
-      <c r="DQ60" s="119"/>
-      <c r="DR60" s="151" t="s">
-        <v>98</v>
-      </c>
-      <c r="DS60" s="31"/>
-      <c r="DT60" s="31"/>
-      <c r="DU60" s="31"/>
-      <c r="DV60" s="31"/>
-      <c r="DW60" s="31"/>
-      <c r="DX60" s="31"/>
-      <c r="DY60" s="31"/>
-      <c r="DZ60" s="31"/>
-      <c r="EA60" s="31"/>
-      <c r="EB60" s="31"/>
-      <c r="EC60" s="31"/>
-      <c r="ED60" s="31"/>
-      <c r="EE60" s="31"/>
-      <c r="EF60" s="31"/>
-      <c r="EG60" s="31"/>
-      <c r="EH60" s="31"/>
-      <c r="EI60" s="31"/>
-      <c r="EJ60" s="31"/>
-      <c r="EK60" s="31"/>
-      <c r="EL60" s="32"/>
-      <c r="EM60" s="96"/>
+      <c r="DN60" s="125"/>
+      <c r="DO60" s="125"/>
+      <c r="DP60" s="125"/>
+      <c r="DQ60" s="120"/>
+      <c r="DR60" s="117"/>
+      <c r="DS60" s="117"/>
+      <c r="DT60" s="117"/>
+      <c r="DU60" s="117"/>
+      <c r="DV60" s="117"/>
+      <c r="DW60" s="117"/>
+      <c r="DX60" s="119"/>
+      <c r="DY60" s="117"/>
+      <c r="DZ60" s="117"/>
+      <c r="EA60" s="117"/>
+      <c r="EB60" s="117"/>
+      <c r="EC60" s="117"/>
+      <c r="ED60" s="117"/>
+      <c r="EE60" s="119"/>
+      <c r="EF60" s="117"/>
+      <c r="EG60" s="117"/>
+      <c r="EH60" s="117"/>
+      <c r="EI60" s="117"/>
+      <c r="EJ60" s="117"/>
+      <c r="EK60" s="117"/>
+      <c r="EL60" s="119"/>
+      <c r="EM60" s="97"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
-      <c r="B61" s="25">
-        <v>49.0</v>
-      </c>
-      <c r="C61" s="112" t="s">
-        <v>101</v>
+      <c r="B61" s="105"/>
+      <c r="C61" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
       <c r="G61" s="32"/>
-      <c r="H61" s="152"/>
+      <c r="H61" s="106">
+        <v>45621.0</v>
+      </c>
       <c r="I61" s="32"/>
-      <c r="J61" s="152"/>
+      <c r="J61" s="107">
+        <v>45642.0</v>
+      </c>
       <c r="K61" s="32"/>
-      <c r="L61" s="114">
+      <c r="L61" s="100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M61" s="32"/>
-      <c r="N61" s="152"/>
+      <c r="N61" s="106"/>
       <c r="O61" s="32"/>
-      <c r="P61" s="96"/>
+      <c r="P61" s="97"/>
       <c r="Q61" s="116"/>
       <c r="R61" s="117"/>
       <c r="S61" s="117"/>
@@ -15751,53 +16008,56 @@
       <c r="DO61" s="117"/>
       <c r="DP61" s="117"/>
       <c r="DQ61" s="119"/>
-      <c r="DR61" s="117"/>
-      <c r="DS61" s="117"/>
-      <c r="DT61" s="117"/>
-      <c r="DU61" s="117"/>
-      <c r="DV61" s="117"/>
-      <c r="DW61" s="117"/>
-      <c r="DX61" s="119"/>
-      <c r="DY61" s="117"/>
-      <c r="DZ61" s="117"/>
-      <c r="EA61" s="117"/>
-      <c r="EB61" s="117"/>
-      <c r="EC61" s="117"/>
-      <c r="ED61" s="117"/>
-      <c r="EE61" s="119"/>
-      <c r="EF61" s="117"/>
-      <c r="EG61" s="117"/>
-      <c r="EH61" s="117"/>
-      <c r="EI61" s="117"/>
-      <c r="EJ61" s="117"/>
-      <c r="EK61" s="117"/>
-      <c r="EL61" s="119"/>
-      <c r="EM61" s="96"/>
+      <c r="DR61" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="DS61" s="31"/>
+      <c r="DT61" s="31"/>
+      <c r="DU61" s="31"/>
+      <c r="DV61" s="31"/>
+      <c r="DW61" s="31"/>
+      <c r="DX61" s="31"/>
+      <c r="DY61" s="31"/>
+      <c r="DZ61" s="31"/>
+      <c r="EA61" s="31"/>
+      <c r="EB61" s="31"/>
+      <c r="EC61" s="31"/>
+      <c r="ED61" s="31"/>
+      <c r="EE61" s="31"/>
+      <c r="EF61" s="31"/>
+      <c r="EG61" s="31"/>
+      <c r="EH61" s="31"/>
+      <c r="EI61" s="31"/>
+      <c r="EJ61" s="31"/>
+      <c r="EK61" s="31"/>
+      <c r="EL61" s="32"/>
+      <c r="EM61" s="97"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
-      <c r="B62" s="25">
-        <v>50.0</v>
-      </c>
-      <c r="C62" s="112" t="s">
-        <v>102</v>
+      <c r="B62" s="105"/>
+      <c r="C62" s="132" t="s">
+        <v>95</v>
       </c>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
       <c r="G62" s="32"/>
-      <c r="H62" s="152"/>
+      <c r="H62" s="163">
+        <v>45621.0</v>
+      </c>
       <c r="I62" s="32"/>
-      <c r="J62" s="152"/>
+      <c r="J62" s="133">
+        <v>45642.0</v>
+      </c>
       <c r="K62" s="32"/>
-      <c r="L62" s="114">
+      <c r="L62" s="134">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="152"/>
+        <v>21</v>
+      </c>
+      <c r="N62" s="163"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="96"/>
+      <c r="P62" s="97"/>
       <c r="Q62" s="116"/>
       <c r="R62" s="117"/>
       <c r="S62" s="117"/>
@@ -15903,53 +16163,61 @@
       <c r="DO62" s="117"/>
       <c r="DP62" s="117"/>
       <c r="DQ62" s="119"/>
-      <c r="DR62" s="117"/>
-      <c r="DS62" s="117"/>
-      <c r="DT62" s="117"/>
-      <c r="DU62" s="117"/>
-      <c r="DV62" s="117"/>
-      <c r="DW62" s="117"/>
-      <c r="DX62" s="119"/>
-      <c r="DY62" s="117"/>
-      <c r="DZ62" s="117"/>
-      <c r="EA62" s="117"/>
-      <c r="EB62" s="117"/>
-      <c r="EC62" s="117"/>
-      <c r="ED62" s="117"/>
-      <c r="EE62" s="119"/>
-      <c r="EF62" s="117"/>
-      <c r="EG62" s="117"/>
-      <c r="EH62" s="117"/>
-      <c r="EI62" s="117"/>
-      <c r="EJ62" s="117"/>
-      <c r="EK62" s="117"/>
-      <c r="EL62" s="119"/>
-      <c r="EM62" s="96"/>
+      <c r="DR62" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="DS62" s="31"/>
+      <c r="DT62" s="31"/>
+      <c r="DU62" s="31"/>
+      <c r="DV62" s="31"/>
+      <c r="DW62" s="31"/>
+      <c r="DX62" s="31"/>
+      <c r="DY62" s="31"/>
+      <c r="DZ62" s="31"/>
+      <c r="EA62" s="31"/>
+      <c r="EB62" s="31"/>
+      <c r="EC62" s="31"/>
+      <c r="ED62" s="31"/>
+      <c r="EE62" s="31"/>
+      <c r="EF62" s="31"/>
+      <c r="EG62" s="31"/>
+      <c r="EH62" s="31"/>
+      <c r="EI62" s="31"/>
+      <c r="EJ62" s="31"/>
+      <c r="EK62" s="31"/>
+      <c r="EL62" s="32"/>
+      <c r="EM62" s="97"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="25">
+      <c r="B63" s="136">
         <v>51.0</v>
       </c>
-      <c r="C63" s="112" t="s">
-        <v>103</v>
+      <c r="C63" s="124" t="s">
+        <v>100</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
-      <c r="H63" s="152"/>
+      <c r="H63" s="113">
+        <v>45621.0</v>
+      </c>
       <c r="I63" s="32"/>
-      <c r="J63" s="152"/>
+      <c r="J63" s="113">
+        <v>45622.0</v>
+      </c>
       <c r="K63" s="32"/>
       <c r="L63" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="32"/>
-      <c r="N63" s="152"/>
+      <c r="N63" s="115" t="s">
+        <v>12</v>
+      </c>
       <c r="O63" s="32"/>
-      <c r="P63" s="96"/>
+      <c r="P63" s="97"/>
       <c r="Q63" s="116"/>
       <c r="R63" s="117"/>
       <c r="S63" s="117"/>
@@ -16055,53 +16323,59 @@
       <c r="DO63" s="117"/>
       <c r="DP63" s="117"/>
       <c r="DQ63" s="119"/>
-      <c r="DR63" s="117"/>
-      <c r="DS63" s="117"/>
-      <c r="DT63" s="117"/>
-      <c r="DU63" s="117"/>
-      <c r="DV63" s="117"/>
-      <c r="DW63" s="117"/>
-      <c r="DX63" s="119"/>
-      <c r="DY63" s="117"/>
-      <c r="DZ63" s="117"/>
-      <c r="EA63" s="117"/>
-      <c r="EB63" s="117"/>
-      <c r="EC63" s="117"/>
-      <c r="ED63" s="117"/>
-      <c r="EE63" s="119"/>
-      <c r="EF63" s="117"/>
+      <c r="DR63" s="120"/>
+      <c r="DS63" s="121"/>
+      <c r="DT63" s="121"/>
+      <c r="DU63" s="121"/>
+      <c r="DV63" s="121"/>
+      <c r="DW63" s="121"/>
+      <c r="DX63" s="150"/>
+      <c r="DY63" s="121"/>
+      <c r="DZ63" s="121"/>
+      <c r="EA63" s="121"/>
+      <c r="EB63" s="121"/>
+      <c r="EC63" s="121"/>
+      <c r="ED63" s="121"/>
+      <c r="EE63" s="150"/>
+      <c r="EF63" s="128"/>
       <c r="EG63" s="117"/>
       <c r="EH63" s="117"/>
       <c r="EI63" s="117"/>
       <c r="EJ63" s="117"/>
       <c r="EK63" s="117"/>
       <c r="EL63" s="119"/>
-      <c r="EM63" s="96"/>
+      <c r="EM63" s="97"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
-      <c r="B64" s="25">
+      <c r="B64" s="82">
         <v>52.0</v>
       </c>
-      <c r="C64" s="112" t="s">
-        <v>104</v>
+      <c r="C64" s="124" t="s">
+        <v>101</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="32"/>
-      <c r="H64" s="152"/>
+      <c r="H64" s="113">
+        <v>45622.0</v>
+      </c>
       <c r="I64" s="32"/>
-      <c r="J64" s="152"/>
+      <c r="J64" s="113">
+        <v>45635.0</v>
+      </c>
       <c r="K64" s="32"/>
       <c r="L64" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M64" s="32"/>
-      <c r="N64" s="152"/>
+      <c r="N64" s="115" t="s">
+        <v>12</v>
+      </c>
       <c r="O64" s="32"/>
-      <c r="P64" s="96"/>
+      <c r="P64" s="97"/>
       <c r="Q64" s="116"/>
       <c r="R64" s="117"/>
       <c r="S64" s="117"/>
@@ -16208,500 +16482,820 @@
       <c r="DP64" s="117"/>
       <c r="DQ64" s="119"/>
       <c r="DR64" s="117"/>
-      <c r="DS64" s="117"/>
-      <c r="DT64" s="117"/>
-      <c r="DU64" s="117"/>
-      <c r="DV64" s="117"/>
-      <c r="DW64" s="117"/>
-      <c r="DX64" s="119"/>
-      <c r="DY64" s="117"/>
-      <c r="DZ64" s="117"/>
-      <c r="EA64" s="117"/>
-      <c r="EB64" s="117"/>
-      <c r="EC64" s="117"/>
-      <c r="ED64" s="117"/>
-      <c r="EE64" s="119"/>
-      <c r="EF64" s="117"/>
+      <c r="DS64" s="118"/>
+      <c r="DT64" s="31"/>
+      <c r="DU64" s="31"/>
+      <c r="DV64" s="31"/>
+      <c r="DW64" s="31"/>
+      <c r="DX64" s="31"/>
+      <c r="DY64" s="31"/>
+      <c r="DZ64" s="31"/>
+      <c r="EA64" s="31"/>
+      <c r="EB64" s="31"/>
+      <c r="EC64" s="31"/>
+      <c r="ED64" s="31"/>
+      <c r="EE64" s="31"/>
+      <c r="EF64" s="119"/>
       <c r="EG64" s="117"/>
       <c r="EH64" s="117"/>
       <c r="EI64" s="117"/>
       <c r="EJ64" s="117"/>
       <c r="EK64" s="117"/>
-      <c r="EL64" s="119"/>
-      <c r="EM64" s="96"/>
+      <c r="EL64" s="128"/>
+      <c r="EM64" s="97"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="25">
         <v>53.0</v>
       </c>
-      <c r="C65" s="112" t="s">
-        <v>105</v>
+      <c r="C65" s="124" t="s">
+        <v>103</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
       <c r="G65" s="32"/>
-      <c r="H65" s="152"/>
+      <c r="H65" s="113">
+        <v>45635.0</v>
+      </c>
       <c r="I65" s="32"/>
-      <c r="J65" s="152"/>
+      <c r="J65" s="113">
+        <v>45641.0</v>
+      </c>
       <c r="K65" s="32"/>
       <c r="L65" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M65" s="32"/>
-      <c r="N65" s="152"/>
+      <c r="N65" s="115" t="s">
+        <v>12</v>
+      </c>
       <c r="O65" s="32"/>
-      <c r="P65" s="155"/>
-      <c r="Q65" s="156"/>
-      <c r="R65" s="157"/>
-      <c r="S65" s="157"/>
-      <c r="T65" s="157"/>
-      <c r="U65" s="157"/>
-      <c r="V65" s="157"/>
-      <c r="W65" s="157"/>
-      <c r="X65" s="157"/>
-      <c r="Y65" s="157"/>
-      <c r="Z65" s="157"/>
-      <c r="AA65" s="157"/>
-      <c r="AB65" s="157"/>
-      <c r="AC65" s="157"/>
-      <c r="AD65" s="157"/>
-      <c r="AE65" s="157"/>
-      <c r="AF65" s="157"/>
-      <c r="AG65" s="157"/>
-      <c r="AH65" s="157"/>
-      <c r="AI65" s="157"/>
-      <c r="AJ65" s="157"/>
-      <c r="AK65" s="157"/>
-      <c r="AL65" s="157"/>
-      <c r="AM65" s="157"/>
-      <c r="AN65" s="157"/>
-      <c r="AO65" s="157"/>
-      <c r="AP65" s="157"/>
-      <c r="AQ65" s="157"/>
-      <c r="AR65" s="157"/>
-      <c r="AS65" s="157"/>
-      <c r="AT65" s="157"/>
-      <c r="AU65" s="157"/>
-      <c r="AV65" s="157"/>
-      <c r="AW65" s="157"/>
-      <c r="AX65" s="157"/>
-      <c r="AY65" s="157"/>
-      <c r="AZ65" s="157"/>
-      <c r="BA65" s="157"/>
-      <c r="BB65" s="157"/>
-      <c r="BC65" s="157"/>
-      <c r="BD65" s="157"/>
-      <c r="BE65" s="157"/>
-      <c r="BF65" s="157"/>
-      <c r="BG65" s="157"/>
-      <c r="BH65" s="157"/>
-      <c r="BI65" s="157"/>
-      <c r="BJ65" s="157"/>
-      <c r="BK65" s="157"/>
-      <c r="BL65" s="157"/>
-      <c r="BM65" s="157"/>
-      <c r="BN65" s="157"/>
-      <c r="BO65" s="157"/>
-      <c r="BP65" s="157"/>
-      <c r="BQ65" s="157"/>
-      <c r="BR65" s="157"/>
-      <c r="BS65" s="157"/>
-      <c r="BT65" s="157"/>
-      <c r="BU65" s="157"/>
-      <c r="BV65" s="157"/>
-      <c r="BW65" s="157"/>
-      <c r="BX65" s="157"/>
-      <c r="BY65" s="157"/>
-      <c r="BZ65" s="157"/>
-      <c r="CA65" s="158"/>
-      <c r="CB65" s="157"/>
-      <c r="CC65" s="157"/>
-      <c r="CD65" s="157"/>
-      <c r="CE65" s="157"/>
-      <c r="CF65" s="157"/>
-      <c r="CG65" s="157"/>
-      <c r="CH65" s="158"/>
-      <c r="CI65" s="157"/>
-      <c r="CJ65" s="157"/>
-      <c r="CK65" s="157"/>
-      <c r="CL65" s="157"/>
-      <c r="CM65" s="157"/>
-      <c r="CN65" s="157"/>
-      <c r="CO65" s="158"/>
-      <c r="CP65" s="157"/>
-      <c r="CQ65" s="157"/>
-      <c r="CR65" s="157"/>
-      <c r="CS65" s="157"/>
-      <c r="CT65" s="157"/>
-      <c r="CU65" s="157"/>
-      <c r="CV65" s="158"/>
-      <c r="CW65" s="157"/>
-      <c r="CX65" s="157"/>
-      <c r="CY65" s="157"/>
-      <c r="CZ65" s="157"/>
-      <c r="DA65" s="157"/>
-      <c r="DB65" s="157"/>
-      <c r="DC65" s="158"/>
-      <c r="DD65" s="157"/>
-      <c r="DE65" s="157"/>
-      <c r="DF65" s="157"/>
-      <c r="DG65" s="157"/>
-      <c r="DH65" s="157"/>
-      <c r="DI65" s="157"/>
-      <c r="DJ65" s="158"/>
-      <c r="DK65" s="157"/>
-      <c r="DL65" s="157"/>
-      <c r="DM65" s="157"/>
-      <c r="DN65" s="157"/>
-      <c r="DO65" s="157"/>
-      <c r="DP65" s="157"/>
-      <c r="DQ65" s="158"/>
-      <c r="DR65" s="157"/>
-      <c r="DS65" s="157"/>
-      <c r="DT65" s="157"/>
-      <c r="DU65" s="157"/>
-      <c r="DV65" s="157"/>
-      <c r="DW65" s="157"/>
-      <c r="DX65" s="158"/>
-      <c r="DY65" s="157"/>
-      <c r="DZ65" s="157"/>
-      <c r="EA65" s="157"/>
-      <c r="EB65" s="157"/>
-      <c r="EC65" s="157"/>
-      <c r="ED65" s="157"/>
-      <c r="EE65" s="158"/>
-      <c r="EF65" s="157"/>
-      <c r="EG65" s="157"/>
-      <c r="EH65" s="157"/>
-      <c r="EI65" s="157"/>
-      <c r="EJ65" s="157"/>
-      <c r="EK65" s="157"/>
-      <c r="EL65" s="158"/>
-      <c r="EM65" s="96"/>
+      <c r="P65" s="97"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="117"/>
+      <c r="S65" s="117"/>
+      <c r="T65" s="117"/>
+      <c r="U65" s="117"/>
+      <c r="V65" s="117"/>
+      <c r="W65" s="117"/>
+      <c r="X65" s="117"/>
+      <c r="Y65" s="117"/>
+      <c r="Z65" s="117"/>
+      <c r="AA65" s="117"/>
+      <c r="AB65" s="117"/>
+      <c r="AC65" s="117"/>
+      <c r="AD65" s="117"/>
+      <c r="AE65" s="117"/>
+      <c r="AF65" s="117"/>
+      <c r="AG65" s="117"/>
+      <c r="AH65" s="117"/>
+      <c r="AI65" s="117"/>
+      <c r="AJ65" s="117"/>
+      <c r="AK65" s="117"/>
+      <c r="AL65" s="117"/>
+      <c r="AM65" s="117"/>
+      <c r="AN65" s="117"/>
+      <c r="AO65" s="117"/>
+      <c r="AP65" s="117"/>
+      <c r="AQ65" s="117"/>
+      <c r="AR65" s="117"/>
+      <c r="AS65" s="117"/>
+      <c r="AT65" s="117"/>
+      <c r="AU65" s="117"/>
+      <c r="AV65" s="117"/>
+      <c r="AW65" s="117"/>
+      <c r="AX65" s="117"/>
+      <c r="AY65" s="117"/>
+      <c r="AZ65" s="117"/>
+      <c r="BA65" s="117"/>
+      <c r="BB65" s="117"/>
+      <c r="BC65" s="117"/>
+      <c r="BD65" s="117"/>
+      <c r="BE65" s="117"/>
+      <c r="BF65" s="117"/>
+      <c r="BG65" s="117"/>
+      <c r="BH65" s="117"/>
+      <c r="BI65" s="117"/>
+      <c r="BJ65" s="117"/>
+      <c r="BK65" s="117"/>
+      <c r="BL65" s="117"/>
+      <c r="BM65" s="117"/>
+      <c r="BN65" s="117"/>
+      <c r="BO65" s="117"/>
+      <c r="BP65" s="117"/>
+      <c r="BQ65" s="117"/>
+      <c r="BR65" s="117"/>
+      <c r="BS65" s="117"/>
+      <c r="BT65" s="117"/>
+      <c r="BU65" s="117"/>
+      <c r="BV65" s="117"/>
+      <c r="BW65" s="117"/>
+      <c r="BX65" s="117"/>
+      <c r="BY65" s="117"/>
+      <c r="BZ65" s="117"/>
+      <c r="CA65" s="119"/>
+      <c r="CB65" s="117"/>
+      <c r="CC65" s="117"/>
+      <c r="CD65" s="117"/>
+      <c r="CE65" s="117"/>
+      <c r="CF65" s="117"/>
+      <c r="CG65" s="117"/>
+      <c r="CH65" s="119"/>
+      <c r="CI65" s="117"/>
+      <c r="CJ65" s="117"/>
+      <c r="CK65" s="117"/>
+      <c r="CL65" s="117"/>
+      <c r="CM65" s="117"/>
+      <c r="CN65" s="117"/>
+      <c r="CO65" s="119"/>
+      <c r="CP65" s="117"/>
+      <c r="CQ65" s="117"/>
+      <c r="CR65" s="117"/>
+      <c r="CS65" s="117"/>
+      <c r="CT65" s="117"/>
+      <c r="CU65" s="117"/>
+      <c r="CV65" s="119"/>
+      <c r="CW65" s="117"/>
+      <c r="CX65" s="117"/>
+      <c r="CY65" s="117"/>
+      <c r="CZ65" s="117"/>
+      <c r="DA65" s="117"/>
+      <c r="DB65" s="117"/>
+      <c r="DC65" s="119"/>
+      <c r="DD65" s="117"/>
+      <c r="DE65" s="117"/>
+      <c r="DF65" s="117"/>
+      <c r="DG65" s="117"/>
+      <c r="DH65" s="117"/>
+      <c r="DI65" s="117"/>
+      <c r="DJ65" s="119"/>
+      <c r="DK65" s="117"/>
+      <c r="DL65" s="117"/>
+      <c r="DM65" s="117"/>
+      <c r="DN65" s="117"/>
+      <c r="DO65" s="117"/>
+      <c r="DP65" s="117"/>
+      <c r="DQ65" s="119"/>
+      <c r="DR65" s="117"/>
+      <c r="DS65" s="125"/>
+      <c r="DT65" s="125"/>
+      <c r="DU65" s="125"/>
+      <c r="DV65" s="125"/>
+      <c r="DW65" s="125"/>
+      <c r="DX65" s="128"/>
+      <c r="DY65" s="125"/>
+      <c r="DZ65" s="125"/>
+      <c r="EA65" s="125"/>
+      <c r="EB65" s="125"/>
+      <c r="EC65" s="125"/>
+      <c r="ED65" s="125"/>
+      <c r="EE65" s="128"/>
+      <c r="EF65" s="118"/>
+      <c r="EG65" s="31"/>
+      <c r="EH65" s="31"/>
+      <c r="EI65" s="31"/>
+      <c r="EJ65" s="31"/>
+      <c r="EK65" s="32"/>
+      <c r="EL65" s="119"/>
+      <c r="EM65" s="97"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="2"/>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="2"/>
-      <c r="AO66" s="2"/>
-      <c r="AP66" s="2"/>
-      <c r="AQ66" s="2"/>
-      <c r="AR66" s="2"/>
-      <c r="AS66" s="2"/>
-      <c r="AT66" s="2"/>
-      <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
-      <c r="AW66" s="2"/>
-      <c r="AX66" s="2"/>
-      <c r="AY66" s="2"/>
-      <c r="AZ66" s="2"/>
-      <c r="BA66" s="2"/>
-      <c r="BB66" s="2"/>
-      <c r="BC66" s="2"/>
-      <c r="BD66" s="2"/>
-      <c r="BE66" s="2"/>
-      <c r="BF66" s="2"/>
-      <c r="BG66" s="2"/>
-      <c r="BH66" s="2"/>
-      <c r="BI66" s="2"/>
-      <c r="BJ66" s="2"/>
-      <c r="BK66" s="2"/>
-      <c r="BL66" s="2"/>
-      <c r="BM66" s="2"/>
-      <c r="BN66" s="2"/>
-      <c r="BO66" s="2"/>
-      <c r="BP66" s="2"/>
-      <c r="BQ66" s="2"/>
-      <c r="BR66" s="2"/>
-      <c r="BS66" s="2"/>
-      <c r="BT66" s="2"/>
-      <c r="BU66" s="2"/>
-      <c r="BV66" s="2"/>
-      <c r="BW66" s="2"/>
-      <c r="BX66" s="2"/>
-      <c r="BY66" s="2"/>
-      <c r="BZ66" s="2"/>
-      <c r="CA66" s="2"/>
-      <c r="CB66" s="2"/>
-      <c r="CC66" s="2"/>
-      <c r="CD66" s="2"/>
-      <c r="CE66" s="2"/>
-      <c r="CF66" s="2"/>
-      <c r="CG66" s="2"/>
-      <c r="CH66" s="2"/>
-      <c r="CI66" s="2"/>
-      <c r="CJ66" s="2"/>
-      <c r="CK66" s="2"/>
-      <c r="CL66" s="2"/>
-      <c r="CM66" s="2"/>
-      <c r="CN66" s="2"/>
-      <c r="CO66" s="2"/>
-      <c r="CP66" s="2"/>
-      <c r="CQ66" s="2"/>
-      <c r="CR66" s="2"/>
-      <c r="CS66" s="2"/>
-      <c r="CT66" s="2"/>
-      <c r="CU66" s="2"/>
-      <c r="CV66" s="2"/>
-      <c r="CW66" s="2"/>
-      <c r="CX66" s="2"/>
-      <c r="CY66" s="2"/>
-      <c r="CZ66" s="2"/>
-      <c r="DA66" s="2"/>
-      <c r="DB66" s="2"/>
-      <c r="DC66" s="2"/>
-      <c r="DD66" s="2"/>
-      <c r="DE66" s="2"/>
-      <c r="DF66" s="2"/>
-      <c r="DG66" s="2"/>
-      <c r="DH66" s="2"/>
-      <c r="DI66" s="2"/>
-      <c r="DJ66" s="2"/>
-      <c r="DK66" s="2"/>
-      <c r="DL66" s="2"/>
-      <c r="DM66" s="2"/>
-      <c r="DN66" s="2"/>
-      <c r="DO66" s="2"/>
-      <c r="DP66" s="2"/>
-      <c r="DQ66" s="2"/>
-      <c r="DR66" s="2"/>
-      <c r="DS66" s="2"/>
-      <c r="DT66" s="2"/>
-      <c r="DU66" s="2"/>
-      <c r="DV66" s="2"/>
-      <c r="DW66" s="2"/>
-      <c r="DX66" s="2"/>
-      <c r="DY66" s="2"/>
-      <c r="DZ66" s="2"/>
-      <c r="EA66" s="2"/>
-      <c r="EB66" s="2"/>
-      <c r="EC66" s="2"/>
-      <c r="ED66" s="2"/>
-      <c r="EE66" s="2"/>
-      <c r="EF66" s="2"/>
-      <c r="EG66" s="2"/>
-      <c r="EH66" s="2"/>
-      <c r="EI66" s="2"/>
-      <c r="EJ66" s="2"/>
-      <c r="EK66" s="2"/>
-      <c r="EL66" s="2"/>
-      <c r="EM66" s="159"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="25">
+        <v>54.0</v>
+      </c>
+      <c r="C66" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="113">
+        <v>45641.0</v>
+      </c>
+      <c r="I66" s="32"/>
+      <c r="J66" s="113">
+        <v>45642.0</v>
+      </c>
+      <c r="K66" s="32"/>
+      <c r="L66" s="114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M66" s="32"/>
+      <c r="N66" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="O66" s="32"/>
+      <c r="P66" s="97"/>
+      <c r="Q66" s="116"/>
+      <c r="R66" s="117"/>
+      <c r="S66" s="117"/>
+      <c r="T66" s="117"/>
+      <c r="U66" s="117"/>
+      <c r="V66" s="117"/>
+      <c r="W66" s="117"/>
+      <c r="X66" s="117"/>
+      <c r="Y66" s="117"/>
+      <c r="Z66" s="117"/>
+      <c r="AA66" s="117"/>
+      <c r="AB66" s="117"/>
+      <c r="AC66" s="117"/>
+      <c r="AD66" s="117"/>
+      <c r="AE66" s="117"/>
+      <c r="AF66" s="117"/>
+      <c r="AG66" s="117"/>
+      <c r="AH66" s="117"/>
+      <c r="AI66" s="117"/>
+      <c r="AJ66" s="117"/>
+      <c r="AK66" s="117"/>
+      <c r="AL66" s="117"/>
+      <c r="AM66" s="117"/>
+      <c r="AN66" s="117"/>
+      <c r="AO66" s="117"/>
+      <c r="AP66" s="117"/>
+      <c r="AQ66" s="117"/>
+      <c r="AR66" s="117"/>
+      <c r="AS66" s="117"/>
+      <c r="AT66" s="117"/>
+      <c r="AU66" s="117"/>
+      <c r="AV66" s="117"/>
+      <c r="AW66" s="117"/>
+      <c r="AX66" s="117"/>
+      <c r="AY66" s="117"/>
+      <c r="AZ66" s="117"/>
+      <c r="BA66" s="117"/>
+      <c r="BB66" s="117"/>
+      <c r="BC66" s="117"/>
+      <c r="BD66" s="117"/>
+      <c r="BE66" s="117"/>
+      <c r="BF66" s="117"/>
+      <c r="BG66" s="117"/>
+      <c r="BH66" s="117"/>
+      <c r="BI66" s="117"/>
+      <c r="BJ66" s="117"/>
+      <c r="BK66" s="117"/>
+      <c r="BL66" s="117"/>
+      <c r="BM66" s="117"/>
+      <c r="BN66" s="117"/>
+      <c r="BO66" s="117"/>
+      <c r="BP66" s="117"/>
+      <c r="BQ66" s="117"/>
+      <c r="BR66" s="117"/>
+      <c r="BS66" s="117"/>
+      <c r="BT66" s="117"/>
+      <c r="BU66" s="117"/>
+      <c r="BV66" s="117"/>
+      <c r="BW66" s="117"/>
+      <c r="BX66" s="117"/>
+      <c r="BY66" s="117"/>
+      <c r="BZ66" s="117"/>
+      <c r="CA66" s="119"/>
+      <c r="CB66" s="117"/>
+      <c r="CC66" s="117"/>
+      <c r="CD66" s="117"/>
+      <c r="CE66" s="117"/>
+      <c r="CF66" s="117"/>
+      <c r="CG66" s="117"/>
+      <c r="CH66" s="119"/>
+      <c r="CI66" s="117"/>
+      <c r="CJ66" s="117"/>
+      <c r="CK66" s="117"/>
+      <c r="CL66" s="117"/>
+      <c r="CM66" s="117"/>
+      <c r="CN66" s="117"/>
+      <c r="CO66" s="119"/>
+      <c r="CP66" s="117"/>
+      <c r="CQ66" s="117"/>
+      <c r="CR66" s="117"/>
+      <c r="CS66" s="117"/>
+      <c r="CT66" s="117"/>
+      <c r="CU66" s="117"/>
+      <c r="CV66" s="119"/>
+      <c r="CW66" s="117"/>
+      <c r="CX66" s="117"/>
+      <c r="CY66" s="117"/>
+      <c r="CZ66" s="117"/>
+      <c r="DA66" s="117"/>
+      <c r="DB66" s="117"/>
+      <c r="DC66" s="119"/>
+      <c r="DD66" s="117"/>
+      <c r="DE66" s="117"/>
+      <c r="DF66" s="117"/>
+      <c r="DG66" s="117"/>
+      <c r="DH66" s="117"/>
+      <c r="DI66" s="117"/>
+      <c r="DJ66" s="119"/>
+      <c r="DK66" s="117"/>
+      <c r="DL66" s="117"/>
+      <c r="DM66" s="117"/>
+      <c r="DN66" s="117"/>
+      <c r="DO66" s="117"/>
+      <c r="DP66" s="117"/>
+      <c r="DQ66" s="119"/>
+      <c r="DR66" s="117"/>
+      <c r="DS66" s="117"/>
+      <c r="DT66" s="117"/>
+      <c r="DU66" s="117"/>
+      <c r="DV66" s="117"/>
+      <c r="DW66" s="117"/>
+      <c r="DX66" s="119"/>
+      <c r="DY66" s="117"/>
+      <c r="DZ66" s="117"/>
+      <c r="EA66" s="117"/>
+      <c r="EB66" s="117"/>
+      <c r="EC66" s="117"/>
+      <c r="ED66" s="117"/>
+      <c r="EE66" s="119"/>
+      <c r="EF66" s="117"/>
+      <c r="EG66" s="117"/>
+      <c r="EH66" s="117"/>
+      <c r="EI66" s="117"/>
+      <c r="EJ66" s="117"/>
+      <c r="EK66" s="117"/>
+      <c r="EL66" s="120"/>
+      <c r="EM66" s="97"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="160"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="51"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="51"/>
-      <c r="V67" s="51"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="51"/>
-      <c r="Y67" s="51"/>
-      <c r="Z67" s="51"/>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="51"/>
-      <c r="AC67" s="51"/>
-      <c r="AD67" s="51"/>
-      <c r="AE67" s="51"/>
-      <c r="AF67" s="51"/>
-      <c r="AG67" s="51"/>
-      <c r="AH67" s="51"/>
-      <c r="AI67" s="51"/>
-      <c r="AJ67" s="51"/>
-      <c r="AK67" s="51"/>
-      <c r="AL67" s="51"/>
-      <c r="AM67" s="51"/>
-      <c r="AN67" s="51"/>
-      <c r="AO67" s="51"/>
-      <c r="AP67" s="51"/>
-      <c r="AQ67" s="51"/>
-      <c r="AR67" s="51"/>
-      <c r="AS67" s="51"/>
-      <c r="AT67" s="51"/>
-      <c r="AU67" s="51"/>
-      <c r="AV67" s="51"/>
-      <c r="AW67" s="51"/>
-      <c r="AX67" s="51"/>
-      <c r="AY67" s="51"/>
-      <c r="AZ67" s="51"/>
-      <c r="BA67" s="51"/>
-      <c r="BB67" s="51"/>
-      <c r="BC67" s="51"/>
-      <c r="BD67" s="51"/>
-      <c r="BE67" s="51"/>
-      <c r="BF67" s="51"/>
-      <c r="BG67" s="51"/>
-      <c r="BH67" s="51"/>
-      <c r="BI67" s="51"/>
-      <c r="BJ67" s="51"/>
-      <c r="BK67" s="51"/>
-      <c r="BL67" s="51"/>
-      <c r="BM67" s="51"/>
-      <c r="BN67" s="51"/>
-      <c r="BO67" s="51"/>
-      <c r="BP67" s="51"/>
-      <c r="BQ67" s="51"/>
-      <c r="BR67" s="51"/>
-      <c r="BS67" s="51"/>
-      <c r="BT67" s="51"/>
-      <c r="BU67" s="51"/>
-      <c r="BV67" s="51"/>
-      <c r="BW67" s="51"/>
-      <c r="BX67" s="51"/>
-      <c r="BY67" s="51"/>
-      <c r="BZ67" s="51"/>
-      <c r="CA67" s="51"/>
-      <c r="CB67" s="51"/>
-      <c r="CC67" s="51"/>
-      <c r="CD67" s="51"/>
-      <c r="CE67" s="51"/>
-      <c r="CF67" s="51"/>
-      <c r="CG67" s="51"/>
-      <c r="CH67" s="51"/>
-      <c r="CI67" s="51"/>
-      <c r="CJ67" s="51"/>
-      <c r="CK67" s="51"/>
-      <c r="CL67" s="51"/>
-      <c r="CM67" s="51"/>
-      <c r="CN67" s="51"/>
-      <c r="CO67" s="51"/>
-      <c r="CP67" s="51"/>
-      <c r="CQ67" s="51"/>
-      <c r="CR67" s="51"/>
-      <c r="CS67" s="51"/>
-      <c r="CT67" s="51"/>
-      <c r="CU67" s="51"/>
-      <c r="CV67" s="51"/>
-      <c r="CW67" s="51"/>
-      <c r="CX67" s="51"/>
-      <c r="CY67" s="51"/>
-      <c r="CZ67" s="51"/>
-      <c r="DA67" s="51"/>
-      <c r="DB67" s="51"/>
-      <c r="DC67" s="51"/>
-      <c r="DD67" s="51"/>
-      <c r="DE67" s="51"/>
-      <c r="DF67" s="51"/>
-      <c r="DG67" s="51"/>
-      <c r="DH67" s="51"/>
-      <c r="DI67" s="51"/>
-      <c r="DJ67" s="51"/>
-      <c r="DK67" s="51"/>
-      <c r="DL67" s="51"/>
-      <c r="DM67" s="51"/>
-      <c r="DN67" s="51"/>
-      <c r="DO67" s="51"/>
-      <c r="DP67" s="51"/>
-      <c r="DQ67" s="51"/>
-      <c r="DR67" s="51"/>
-      <c r="DS67" s="51"/>
-      <c r="DT67" s="51"/>
-      <c r="DU67" s="51"/>
-      <c r="DV67" s="51"/>
-      <c r="DW67" s="51"/>
-      <c r="DX67" s="51"/>
-      <c r="DY67" s="51"/>
-      <c r="DZ67" s="51"/>
-      <c r="EA67" s="51"/>
-      <c r="EB67" s="51"/>
-      <c r="EC67" s="51"/>
-      <c r="ED67" s="51"/>
-      <c r="EE67" s="51"/>
-      <c r="EF67" s="51"/>
-      <c r="EG67" s="51"/>
-      <c r="EH67" s="51"/>
-      <c r="EI67" s="51"/>
-      <c r="EJ67" s="51"/>
-      <c r="EK67" s="51"/>
-      <c r="EL67" s="51"/>
-      <c r="EM67" s="52"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="25">
+        <v>55.0</v>
+      </c>
+      <c r="C67" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="113">
+        <v>45642.0</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="113">
+        <v>45643.0</v>
+      </c>
+      <c r="K67" s="32"/>
+      <c r="L67" s="114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M67" s="32"/>
+      <c r="N67" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" s="32"/>
+      <c r="P67" s="164"/>
+      <c r="Q67" s="165"/>
+      <c r="R67" s="166"/>
+      <c r="S67" s="166"/>
+      <c r="T67" s="166"/>
+      <c r="U67" s="166"/>
+      <c r="V67" s="166"/>
+      <c r="W67" s="166"/>
+      <c r="X67" s="166"/>
+      <c r="Y67" s="166"/>
+      <c r="Z67" s="166"/>
+      <c r="AA67" s="166"/>
+      <c r="AB67" s="166"/>
+      <c r="AC67" s="166"/>
+      <c r="AD67" s="166"/>
+      <c r="AE67" s="166"/>
+      <c r="AF67" s="166"/>
+      <c r="AG67" s="166"/>
+      <c r="AH67" s="166"/>
+      <c r="AI67" s="166"/>
+      <c r="AJ67" s="166"/>
+      <c r="AK67" s="166"/>
+      <c r="AL67" s="166"/>
+      <c r="AM67" s="166"/>
+      <c r="AN67" s="166"/>
+      <c r="AO67" s="166"/>
+      <c r="AP67" s="166"/>
+      <c r="AQ67" s="166"/>
+      <c r="AR67" s="166"/>
+      <c r="AS67" s="166"/>
+      <c r="AT67" s="166"/>
+      <c r="AU67" s="166"/>
+      <c r="AV67" s="166"/>
+      <c r="AW67" s="166"/>
+      <c r="AX67" s="166"/>
+      <c r="AY67" s="166"/>
+      <c r="AZ67" s="166"/>
+      <c r="BA67" s="166"/>
+      <c r="BB67" s="166"/>
+      <c r="BC67" s="166"/>
+      <c r="BD67" s="166"/>
+      <c r="BE67" s="166"/>
+      <c r="BF67" s="166"/>
+      <c r="BG67" s="166"/>
+      <c r="BH67" s="166"/>
+      <c r="BI67" s="166"/>
+      <c r="BJ67" s="166"/>
+      <c r="BK67" s="166"/>
+      <c r="BL67" s="166"/>
+      <c r="BM67" s="166"/>
+      <c r="BN67" s="166"/>
+      <c r="BO67" s="166"/>
+      <c r="BP67" s="166"/>
+      <c r="BQ67" s="166"/>
+      <c r="BR67" s="166"/>
+      <c r="BS67" s="166"/>
+      <c r="BT67" s="166"/>
+      <c r="BU67" s="166"/>
+      <c r="BV67" s="166"/>
+      <c r="BW67" s="166"/>
+      <c r="BX67" s="166"/>
+      <c r="BY67" s="166"/>
+      <c r="BZ67" s="166"/>
+      <c r="CA67" s="167"/>
+      <c r="CB67" s="166"/>
+      <c r="CC67" s="166"/>
+      <c r="CD67" s="166"/>
+      <c r="CE67" s="166"/>
+      <c r="CF67" s="166"/>
+      <c r="CG67" s="166"/>
+      <c r="CH67" s="167"/>
+      <c r="CI67" s="166"/>
+      <c r="CJ67" s="166"/>
+      <c r="CK67" s="166"/>
+      <c r="CL67" s="166"/>
+      <c r="CM67" s="166"/>
+      <c r="CN67" s="166"/>
+      <c r="CO67" s="167"/>
+      <c r="CP67" s="166"/>
+      <c r="CQ67" s="166"/>
+      <c r="CR67" s="166"/>
+      <c r="CS67" s="166"/>
+      <c r="CT67" s="166"/>
+      <c r="CU67" s="166"/>
+      <c r="CV67" s="167"/>
+      <c r="CW67" s="166"/>
+      <c r="CX67" s="166"/>
+      <c r="CY67" s="166"/>
+      <c r="CZ67" s="166"/>
+      <c r="DA67" s="166"/>
+      <c r="DB67" s="166"/>
+      <c r="DC67" s="167"/>
+      <c r="DD67" s="166"/>
+      <c r="DE67" s="166"/>
+      <c r="DF67" s="166"/>
+      <c r="DG67" s="166"/>
+      <c r="DH67" s="166"/>
+      <c r="DI67" s="166"/>
+      <c r="DJ67" s="167"/>
+      <c r="DK67" s="166"/>
+      <c r="DL67" s="166"/>
+      <c r="DM67" s="166"/>
+      <c r="DN67" s="166"/>
+      <c r="DO67" s="166"/>
+      <c r="DP67" s="166"/>
+      <c r="DQ67" s="167"/>
+      <c r="DR67" s="166"/>
+      <c r="DS67" s="166"/>
+      <c r="DT67" s="166"/>
+      <c r="DU67" s="166"/>
+      <c r="DV67" s="166"/>
+      <c r="DW67" s="166"/>
+      <c r="DX67" s="167"/>
+      <c r="DY67" s="166"/>
+      <c r="DZ67" s="166"/>
+      <c r="EA67" s="166"/>
+      <c r="EB67" s="166"/>
+      <c r="EC67" s="166"/>
+      <c r="ED67" s="166"/>
+      <c r="EE67" s="167"/>
+      <c r="EF67" s="166"/>
+      <c r="EG67" s="166"/>
+      <c r="EH67" s="166"/>
+      <c r="EI67" s="166"/>
+      <c r="EJ67" s="166"/>
+      <c r="EK67" s="166"/>
+      <c r="EL67" s="167"/>
+      <c r="EM67" s="97"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AM68" s="2"/>
+      <c r="AN68" s="2"/>
+      <c r="AO68" s="2"/>
+      <c r="AP68" s="2"/>
+      <c r="AQ68" s="2"/>
+      <c r="AR68" s="2"/>
+      <c r="AS68" s="2"/>
+      <c r="AT68" s="2"/>
+      <c r="AU68" s="2"/>
+      <c r="AV68" s="2"/>
+      <c r="AW68" s="2"/>
+      <c r="AX68" s="2"/>
+      <c r="AY68" s="2"/>
+      <c r="AZ68" s="2"/>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="2"/>
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BJ68" s="2"/>
+      <c r="BK68" s="2"/>
+      <c r="BL68" s="2"/>
+      <c r="BM68" s="2"/>
+      <c r="BN68" s="2"/>
+      <c r="BO68" s="2"/>
+      <c r="BP68" s="2"/>
+      <c r="BQ68" s="2"/>
+      <c r="BR68" s="2"/>
+      <c r="BS68" s="2"/>
+      <c r="BT68" s="2"/>
+      <c r="BU68" s="2"/>
+      <c r="BV68" s="2"/>
+      <c r="BW68" s="2"/>
+      <c r="BX68" s="2"/>
+      <c r="BY68" s="2"/>
+      <c r="BZ68" s="2"/>
+      <c r="CA68" s="2"/>
+      <c r="CB68" s="2"/>
+      <c r="CC68" s="2"/>
+      <c r="CD68" s="2"/>
+      <c r="CE68" s="2"/>
+      <c r="CF68" s="2"/>
+      <c r="CG68" s="2"/>
+      <c r="CH68" s="2"/>
+      <c r="CI68" s="2"/>
+      <c r="CJ68" s="2"/>
+      <c r="CK68" s="2"/>
+      <c r="CL68" s="2"/>
+      <c r="CM68" s="2"/>
+      <c r="CN68" s="2"/>
+      <c r="CO68" s="2"/>
+      <c r="CP68" s="2"/>
+      <c r="CQ68" s="2"/>
+      <c r="CR68" s="2"/>
+      <c r="CS68" s="2"/>
+      <c r="CT68" s="2"/>
+      <c r="CU68" s="2"/>
+      <c r="CV68" s="2"/>
+      <c r="CW68" s="2"/>
+      <c r="CX68" s="2"/>
+      <c r="CY68" s="2"/>
+      <c r="CZ68" s="2"/>
+      <c r="DA68" s="2"/>
+      <c r="DB68" s="2"/>
+      <c r="DC68" s="2"/>
+      <c r="DD68" s="2"/>
+      <c r="DE68" s="2"/>
+      <c r="DF68" s="2"/>
+      <c r="DG68" s="2"/>
+      <c r="DH68" s="2"/>
+      <c r="DI68" s="2"/>
+      <c r="DJ68" s="2"/>
+      <c r="DK68" s="2"/>
+      <c r="DL68" s="2"/>
+      <c r="DM68" s="2"/>
+      <c r="DN68" s="2"/>
+      <c r="DO68" s="2"/>
+      <c r="DP68" s="2"/>
+      <c r="DQ68" s="2"/>
+      <c r="DR68" s="2"/>
+      <c r="DS68" s="2"/>
+      <c r="DT68" s="2"/>
+      <c r="DU68" s="2"/>
+      <c r="DV68" s="2"/>
+      <c r="DW68" s="2"/>
+      <c r="DX68" s="2"/>
+      <c r="DY68" s="2"/>
+      <c r="DZ68" s="2"/>
+      <c r="EA68" s="2"/>
+      <c r="EB68" s="2"/>
+      <c r="EC68" s="2"/>
+      <c r="ED68" s="2"/>
+      <c r="EE68" s="2"/>
+      <c r="EF68" s="2"/>
+      <c r="EG68" s="2"/>
+      <c r="EH68" s="2"/>
+      <c r="EI68" s="2"/>
+      <c r="EJ68" s="2"/>
+      <c r="EK68" s="2"/>
+      <c r="EL68" s="2"/>
+      <c r="EM68" s="168"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="169"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="51"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="51"/>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="51"/>
+      <c r="AC69" s="51"/>
+      <c r="AD69" s="51"/>
+      <c r="AE69" s="51"/>
+      <c r="AF69" s="51"/>
+      <c r="AG69" s="51"/>
+      <c r="AH69" s="51"/>
+      <c r="AI69" s="51"/>
+      <c r="AJ69" s="51"/>
+      <c r="AK69" s="51"/>
+      <c r="AL69" s="51"/>
+      <c r="AM69" s="51"/>
+      <c r="AN69" s="51"/>
+      <c r="AO69" s="51"/>
+      <c r="AP69" s="51"/>
+      <c r="AQ69" s="51"/>
+      <c r="AR69" s="51"/>
+      <c r="AS69" s="51"/>
+      <c r="AT69" s="51"/>
+      <c r="AU69" s="51"/>
+      <c r="AV69" s="51"/>
+      <c r="AW69" s="51"/>
+      <c r="AX69" s="51"/>
+      <c r="AY69" s="51"/>
+      <c r="AZ69" s="51"/>
+      <c r="BA69" s="51"/>
+      <c r="BB69" s="51"/>
+      <c r="BC69" s="51"/>
+      <c r="BD69" s="51"/>
+      <c r="BE69" s="51"/>
+      <c r="BF69" s="51"/>
+      <c r="BG69" s="51"/>
+      <c r="BH69" s="51"/>
+      <c r="BI69" s="51"/>
+      <c r="BJ69" s="51"/>
+      <c r="BK69" s="51"/>
+      <c r="BL69" s="51"/>
+      <c r="BM69" s="51"/>
+      <c r="BN69" s="51"/>
+      <c r="BO69" s="51"/>
+      <c r="BP69" s="51"/>
+      <c r="BQ69" s="51"/>
+      <c r="BR69" s="51"/>
+      <c r="BS69" s="51"/>
+      <c r="BT69" s="51"/>
+      <c r="BU69" s="51"/>
+      <c r="BV69" s="51"/>
+      <c r="BW69" s="51"/>
+      <c r="BX69" s="51"/>
+      <c r="BY69" s="51"/>
+      <c r="BZ69" s="51"/>
+      <c r="CA69" s="51"/>
+      <c r="CB69" s="51"/>
+      <c r="CC69" s="51"/>
+      <c r="CD69" s="51"/>
+      <c r="CE69" s="51"/>
+      <c r="CF69" s="51"/>
+      <c r="CG69" s="51"/>
+      <c r="CH69" s="51"/>
+      <c r="CI69" s="51"/>
+      <c r="CJ69" s="51"/>
+      <c r="CK69" s="51"/>
+      <c r="CL69" s="51"/>
+      <c r="CM69" s="51"/>
+      <c r="CN69" s="51"/>
+      <c r="CO69" s="51"/>
+      <c r="CP69" s="51"/>
+      <c r="CQ69" s="51"/>
+      <c r="CR69" s="51"/>
+      <c r="CS69" s="51"/>
+      <c r="CT69" s="51"/>
+      <c r="CU69" s="51"/>
+      <c r="CV69" s="51"/>
+      <c r="CW69" s="51"/>
+      <c r="CX69" s="51"/>
+      <c r="CY69" s="51"/>
+      <c r="CZ69" s="51"/>
+      <c r="DA69" s="51"/>
+      <c r="DB69" s="51"/>
+      <c r="DC69" s="51"/>
+      <c r="DD69" s="51"/>
+      <c r="DE69" s="51"/>
+      <c r="DF69" s="51"/>
+      <c r="DG69" s="51"/>
+      <c r="DH69" s="51"/>
+      <c r="DI69" s="51"/>
+      <c r="DJ69" s="51"/>
+      <c r="DK69" s="51"/>
+      <c r="DL69" s="51"/>
+      <c r="DM69" s="51"/>
+      <c r="DN69" s="51"/>
+      <c r="DO69" s="51"/>
+      <c r="DP69" s="51"/>
+      <c r="DQ69" s="51"/>
+      <c r="DR69" s="51"/>
+      <c r="DS69" s="51"/>
+      <c r="DT69" s="51"/>
+      <c r="DU69" s="51"/>
+      <c r="DV69" s="51"/>
+      <c r="DW69" s="51"/>
+      <c r="DX69" s="51"/>
+      <c r="DY69" s="51"/>
+      <c r="DZ69" s="51"/>
+      <c r="EA69" s="51"/>
+      <c r="EB69" s="51"/>
+      <c r="EC69" s="51"/>
+      <c r="ED69" s="51"/>
+      <c r="EE69" s="51"/>
+      <c r="EF69" s="51"/>
+      <c r="EG69" s="51"/>
+      <c r="EH69" s="51"/>
+      <c r="EI69" s="51"/>
+      <c r="EJ69" s="51"/>
+      <c r="EK69" s="51"/>
+      <c r="EL69" s="51"/>
+      <c r="EM69" s="52"/>
+    </row>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="O72" s="161"/>
-      <c r="P72" s="161"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="O73" s="161"/>
-      <c r="P73" s="161"/>
-    </row>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="O74" s="161"/>
-      <c r="P74" s="161"/>
+      <c r="O74" s="170"/>
+      <c r="P74" s="170"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="N75" s="161"/>
-      <c r="O75" s="161"/>
+      <c r="O75" s="170"/>
+      <c r="P75" s="170"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="N76" s="161"/>
-      <c r="O76" s="161"/>
+      <c r="O76" s="170"/>
+      <c r="P76" s="170"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="N77" s="161"/>
-      <c r="O77" s="161"/>
+      <c r="N77" s="170"/>
+      <c r="O77" s="170"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="N78" s="170"/>
+      <c r="O78" s="170"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="N79" s="170"/>
+      <c r="O79" s="170"/>
+    </row>
     <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
@@ -17626,8 +18220,10 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="361">
+  <mergeCells count="383">
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="AL4:AR4"/>
@@ -17753,136 +18349,6 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="AZ24:BC24"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="BU35:BY35"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="CI46:CJ46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="DR59:EL59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="DR60:EL60"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="A66:EM67"/>
-    <mergeCell ref="CN48:DS48"/>
-    <mergeCell ref="BU34:CM34"/>
-    <mergeCell ref="CI45:CL45"/>
-    <mergeCell ref="CK44:CL44"/>
-    <mergeCell ref="A1:EM2"/>
-    <mergeCell ref="Q3:EL3"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="EF4:EL4"/>
-    <mergeCell ref="A3:A65"/>
-    <mergeCell ref="P3:P65"/>
-    <mergeCell ref="EM3:EM65"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="J25:K25"/>
@@ -17988,7 +18454,159 @@
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="CZ53:DD53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="CZ54:DD54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="DR61:EL61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="DR62:EL62"/>
+    <mergeCell ref="DI59:DP59"/>
+    <mergeCell ref="DS64:EE64"/>
+    <mergeCell ref="EF65:EK65"/>
+    <mergeCell ref="A1:EM2"/>
+    <mergeCell ref="A3:A67"/>
+    <mergeCell ref="P3:P67"/>
+    <mergeCell ref="Q3:EL3"/>
+    <mergeCell ref="EM3:EM67"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="EF4:EL4"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:EM69"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="DE55:DF55"/>
+    <mergeCell ref="DE56:DF56"/>
+    <mergeCell ref="DE57:DF57"/>
+    <mergeCell ref="DG58:DH58"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="CK44:CL44"/>
     <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="CI45:CL45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="CI46:CJ46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="BU34:CM34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="BU35:BY35"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="CO50:CR50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="CO51:CR51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="CS52:CY52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="CN48:DQ48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N55:O55"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -18008,34 +18626,34 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="171" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="162" t="s">
+      <c r="T2" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="T2" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB2" s="162"/>
+      <c r="AB2" s="171"/>
     </row>
     <row r="3">
-      <c r="AB3" s="162"/>
+      <c r="AB3" s="171"/>
     </row>
     <row r="31">
-      <c r="B31" s="162" t="s">
+      <c r="B31" s="171" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="171" t="s">
         <v>124</v>
-      </c>
-      <c r="K31" s="162" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="162" t="s">
+      <c r="B60" s="171" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60" s="171" t="s">
         <v>126</v>
-      </c>
-      <c r="K60" s="162" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -18074,7 +18692,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4">
-      <c r="B4" s="163"/>
+      <c r="B4" s="172"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5">
@@ -18086,235 +18704,235 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="B6" s="164"/>
-      <c r="C6" s="165" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="174" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="165" t="s">
-        <v>129</v>
-      </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="166"/>
+      <c r="G6" s="175"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="B7" s="167"/>
-      <c r="C7" s="168">
+      <c r="B7" s="176"/>
+      <c r="C7" s="177">
         <v>1.0</v>
       </c>
       <c r="D7" s="32"/>
-      <c r="E7" s="169" t="s">
-        <v>130</v>
+      <c r="E7" s="178" t="s">
+        <v>129</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="170"/>
+      <c r="G7" s="179"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="B8" s="167"/>
-      <c r="C8" s="168">
+      <c r="B8" s="176"/>
+      <c r="C8" s="177">
         <v>2.0</v>
       </c>
       <c r="D8" s="32"/>
-      <c r="E8" s="169" t="s">
-        <v>131</v>
+      <c r="E8" s="178" t="s">
+        <v>130</v>
       </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="170"/>
+      <c r="G8" s="179"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="B9" s="167"/>
-      <c r="C9" s="171">
+      <c r="B9" s="176"/>
+      <c r="C9" s="180">
         <v>3.0</v>
       </c>
       <c r="D9" s="32"/>
-      <c r="E9" s="169" t="s">
-        <v>132</v>
+      <c r="E9" s="178" t="s">
+        <v>131</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="170"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="G9" s="179"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="B10" s="167"/>
-      <c r="C10" s="171">
+      <c r="B10" s="176"/>
+      <c r="C10" s="180">
         <v>4.0</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="169" t="s">
-        <v>133</v>
+      <c r="E10" s="178" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="170"/>
-      <c r="J10" s="173"/>
+      <c r="G10" s="179"/>
+      <c r="J10" s="182"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="B11" s="167"/>
-      <c r="C11" s="171">
+      <c r="B11" s="176"/>
+      <c r="C11" s="180">
         <v>5.0</v>
       </c>
       <c r="D11" s="32"/>
-      <c r="E11" s="169" t="s">
-        <v>134</v>
+      <c r="E11" s="178" t="s">
+        <v>133</v>
       </c>
       <c r="F11" s="32"/>
-      <c r="G11" s="170"/>
+      <c r="G11" s="179"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="B12" s="167"/>
-      <c r="C12" s="171">
+      <c r="B12" s="176"/>
+      <c r="C12" s="180">
         <v>6.0</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="169" t="s">
-        <v>135</v>
+      <c r="E12" s="178" t="s">
+        <v>134</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="170"/>
+      <c r="G12" s="179"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="B13" s="167"/>
-      <c r="C13" s="171">
+      <c r="B13" s="176"/>
+      <c r="C13" s="180">
         <v>7.0</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="169" t="s">
-        <v>136</v>
+      <c r="E13" s="178" t="s">
+        <v>135</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="170"/>
+      <c r="G13" s="179"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="B14" s="167"/>
-      <c r="C14" s="171">
+      <c r="B14" s="176"/>
+      <c r="C14" s="180">
         <v>8.0</v>
       </c>
       <c r="D14" s="32"/>
-      <c r="E14" s="169" t="s">
-        <v>137</v>
+      <c r="E14" s="178" t="s">
+        <v>136</v>
       </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="170"/>
+      <c r="G14" s="179"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="B15" s="167"/>
-      <c r="C15" s="171">
+      <c r="B15" s="176"/>
+      <c r="C15" s="180">
         <v>9.0</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="169" t="s">
-        <v>138</v>
+      <c r="E15" s="178" t="s">
+        <v>137</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="170"/>
+      <c r="G15" s="179"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="B16" s="167"/>
-      <c r="C16" s="171">
+      <c r="B16" s="176"/>
+      <c r="C16" s="180">
         <v>10.0</v>
       </c>
       <c r="D16" s="32"/>
-      <c r="E16" s="169" t="s">
-        <v>139</v>
+      <c r="E16" s="178" t="s">
+        <v>138</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="170"/>
+      <c r="G16" s="179"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="B17" s="167"/>
-      <c r="C17" s="171">
+      <c r="B17" s="176"/>
+      <c r="C17" s="180">
         <v>11.0</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="169" t="s">
-        <v>140</v>
+      <c r="E17" s="178" t="s">
+        <v>139</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="170"/>
+      <c r="G17" s="179"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="B18" s="167"/>
-      <c r="C18" s="171">
+      <c r="B18" s="176"/>
+      <c r="C18" s="180">
         <v>12.0</v>
       </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="169" t="s">
-        <v>141</v>
+      <c r="E18" s="178" t="s">
+        <v>140</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="170"/>
+      <c r="G18" s="179"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="B19" s="167"/>
-      <c r="C19" s="171">
+      <c r="B19" s="176"/>
+      <c r="C19" s="180">
         <v>13.0</v>
       </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="169" t="s">
-        <v>142</v>
+      <c r="E19" s="178" t="s">
+        <v>141</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="170"/>
+      <c r="G19" s="179"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="B20" s="167"/>
-      <c r="C20" s="171">
+      <c r="B20" s="176"/>
+      <c r="C20" s="180">
         <v>14.0</v>
       </c>
       <c r="D20" s="32"/>
-      <c r="E20" s="169" t="s">
-        <v>143</v>
+      <c r="E20" s="178" t="s">
+        <v>142</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="170"/>
+      <c r="G20" s="179"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="B21" s="167"/>
-      <c r="C21" s="171">
+      <c r="B21" s="176"/>
+      <c r="C21" s="180">
         <v>15.0</v>
       </c>
       <c r="D21" s="32"/>
-      <c r="E21" s="169" t="s">
-        <v>144</v>
+      <c r="E21" s="178" t="s">
+        <v>143</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="170"/>
+      <c r="G21" s="179"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="B22" s="167"/>
-      <c r="C22" s="171">
+      <c r="B22" s="176"/>
+      <c r="C22" s="180">
         <v>16.0</v>
       </c>
       <c r="D22" s="32"/>
-      <c r="E22" s="169" t="s">
-        <v>145</v>
+      <c r="E22" s="178" t="s">
+        <v>144</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="170"/>
+      <c r="G22" s="179"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="B23" s="167"/>
-      <c r="C23" s="171">
+      <c r="B23" s="176"/>
+      <c r="C23" s="180">
         <v>17.0</v>
       </c>
       <c r="D23" s="32"/>
-      <c r="E23" s="169" t="s">
-        <v>146</v>
+      <c r="E23" s="178" t="s">
+        <v>145</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="170"/>
+      <c r="G23" s="179"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
-      <c r="B24" s="174"/>
-      <c r="C24" s="171">
+      <c r="B24" s="183"/>
+      <c r="C24" s="180">
         <v>18.0</v>
       </c>
       <c r="D24" s="32"/>
-      <c r="E24" s="169" t="s">
-        <v>147</v>
+      <c r="E24" s="178" t="s">
+        <v>146</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="175"/>
+      <c r="G24" s="184"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="43"/>
@@ -18325,7 +18943,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="163"/>
+      <c r="B26" s="172"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
